--- a/EconomicProject/Report/Results/Overview_E3.xlsx
+++ b/EconomicProject/Report/Results/Overview_E3.xlsx
@@ -1670,31 +1670,31 @@
               <strCache>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1266:1339</v>
+                  <v>1251:1323</v>
                 </pt>
                 <pt idx="1">
-                  <v>1339:1412</v>
+                  <v>1323:1395</v>
                 </pt>
                 <pt idx="2">
-                  <v>1412:1484</v>
+                  <v>1395:1467</v>
                 </pt>
                 <pt idx="3">
-                  <v>1484:1557</v>
+                  <v>1467:1539</v>
                 </pt>
                 <pt idx="4">
-                  <v>1557:1630</v>
+                  <v>1539:1611</v>
                 </pt>
                 <pt idx="5">
-                  <v>1630:1702</v>
+                  <v>1611:1683</v>
                 </pt>
                 <pt idx="6">
-                  <v>1702:1775</v>
+                  <v>1683:1755</v>
                 </pt>
                 <pt idx="7">
-                  <v>1775:1847</v>
+                  <v>1755:1827</v>
                 </pt>
                 <pt idx="8">
-                  <v>1847:1920</v>
+                  <v>1827:1899</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1706,31 +1706,31 @@
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>47</v>
+                  <v>36</v>
                 </pt>
                 <pt idx="1">
-                  <v>122</v>
+                  <v>101</v>
                 </pt>
                 <pt idx="2">
-                  <v>163</v>
+                  <v>153</v>
                 </pt>
                 <pt idx="3">
-                  <v>124</v>
+                  <v>133</v>
                 </pt>
                 <pt idx="4">
-                  <v>132</v>
+                  <v>123</v>
                 </pt>
                 <pt idx="5">
-                  <v>131</v>
+                  <v>143</v>
                 </pt>
                 <pt idx="6">
-                  <v>122</v>
+                  <v>130</v>
                 </pt>
                 <pt idx="7">
-                  <v>115</v>
+                  <v>130</v>
                 </pt>
                 <pt idx="8">
-                  <v>44</v>
+                  <v>51</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4661,31 +4661,31 @@
               <strCache>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1266:1339</v>
+                  <v>1251:1323</v>
                 </pt>
                 <pt idx="1">
-                  <v>1339:1412</v>
+                  <v>1323:1395</v>
                 </pt>
                 <pt idx="2">
-                  <v>1412:1484</v>
+                  <v>1395:1467</v>
                 </pt>
                 <pt idx="3">
-                  <v>1484:1557</v>
+                  <v>1467:1539</v>
                 </pt>
                 <pt idx="4">
-                  <v>1557:1630</v>
+                  <v>1539:1611</v>
                 </pt>
                 <pt idx="5">
-                  <v>1630:1702</v>
+                  <v>1611:1683</v>
                 </pt>
                 <pt idx="6">
-                  <v>1702:1775</v>
+                  <v>1683:1755</v>
                 </pt>
                 <pt idx="7">
-                  <v>1775:1847</v>
+                  <v>1755:1827</v>
                 </pt>
                 <pt idx="8">
-                  <v>1847:1920</v>
+                  <v>1827:1899</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4697,31 +4697,31 @@
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>47</v>
+                  <v>36</v>
                 </pt>
                 <pt idx="1">
-                  <v>122</v>
+                  <v>101</v>
                 </pt>
                 <pt idx="2">
-                  <v>163</v>
+                  <v>153</v>
                 </pt>
                 <pt idx="3">
-                  <v>124</v>
+                  <v>133</v>
                 </pt>
                 <pt idx="4">
-                  <v>132</v>
+                  <v>123</v>
                 </pt>
                 <pt idx="5">
-                  <v>131</v>
+                  <v>143</v>
                 </pt>
                 <pt idx="6">
-                  <v>122</v>
+                  <v>130</v>
                 </pt>
                 <pt idx="7">
-                  <v>115</v>
+                  <v>130</v>
                 </pt>
                 <pt idx="8">
-                  <v>44</v>
+                  <v>51</v>
                 </pt>
               </numCache>
             </numRef>
@@ -36846,15 +36846,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>1379.8573487016</v>
+        <v>1629.212828085149</v>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>1266:1339</t>
+          <t>1251:1323</t>
         </is>
       </c>
       <c r="E2" s="8" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -36862,15 +36862,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>1700.634094118973</v>
+        <v>1603.12837492376</v>
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>1339:1412</t>
+          <t>1323:1395</t>
         </is>
       </c>
       <c r="E3" s="8" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -36878,15 +36878,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1678.156945695052</v>
+        <v>1525.943330250497</v>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>1412:1484</t>
+          <t>1395:1467</t>
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -36894,15 +36894,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1318.725490764969</v>
+        <v>1377.154672572911</v>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>1484:1557</t>
+          <t>1467:1539</t>
         </is>
       </c>
       <c r="E5" s="8" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -36910,15 +36910,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1440.437347689021</v>
+        <v>1403.706286198523</v>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>1557:1630</t>
+          <t>1539:1611</t>
         </is>
       </c>
       <c r="E6" s="8" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -36926,15 +36926,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>1349.163907621222</v>
+        <v>1432.793908001115</v>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>1630:1702</t>
+          <t>1611:1683</t>
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -36942,15 +36942,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1416.451194125207</v>
+        <v>1500.102430843306</v>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>1702:1775</t>
+          <t>1683:1755</t>
         </is>
       </c>
       <c r="E8" s="8" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -36958,15 +36958,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1777.894912603772</v>
+        <v>1459.561407806294</v>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>1775:1847</t>
+          <t>1755:1827</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -36974,15 +36974,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>1417.129570793033</v>
+        <v>1395.176798102027</v>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>1847:1920</t>
+          <t>1827:1899</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -36990,7 +36990,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>1793.056058327471</v>
+        <v>1766.150940973518</v>
       </c>
     </row>
     <row r="12">
@@ -36998,7 +36998,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1814.442814755553</v>
+        <v>1452.1474716073</v>
       </c>
     </row>
     <row r="13">
@@ -37006,7 +37006,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>1757.699456720262</v>
+        <v>1437.501683827052</v>
       </c>
     </row>
     <row r="14">
@@ -37014,7 +37014,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>1790.766878968115</v>
+        <v>1541.832572317601</v>
       </c>
     </row>
     <row r="15">
@@ -37022,7 +37022,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>1305.715540337255</v>
+        <v>1424.524347063736</v>
       </c>
     </row>
     <row r="16">
@@ -37030,7 +37030,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>1534.407579703451</v>
+        <v>1395.385663617551</v>
       </c>
     </row>
     <row r="17">
@@ -37038,7 +37038,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>1567.377535204372</v>
+        <v>1592.383824724408</v>
       </c>
     </row>
     <row r="18">
@@ -37046,7 +37046,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>1792.931329289172</v>
+        <v>1466.861695319077</v>
       </c>
     </row>
     <row r="19">
@@ -37054,7 +37054,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>1438.906136694958</v>
+        <v>1605.930160468392</v>
       </c>
     </row>
     <row r="20">
@@ -37062,7 +37062,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>1737.313286768952</v>
+        <v>1457.07736652467</v>
       </c>
     </row>
     <row r="21">
@@ -37070,7 +37070,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>1369.852132013878</v>
+        <v>1372.65588579803</v>
       </c>
     </row>
     <row r="22">
@@ -37078,7 +37078,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>1575.954312628418</v>
+        <v>1634.957784813179</v>
       </c>
     </row>
     <row r="23">
@@ -37086,7 +37086,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>1675.420894980524</v>
+        <v>1335.401633213059</v>
       </c>
     </row>
     <row r="24">
@@ -37094,7 +37094,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>1467.432767831286</v>
+        <v>1560.325019565333</v>
       </c>
     </row>
     <row r="25">
@@ -37102,7 +37102,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>1397.538986811909</v>
+        <v>1373.934630985183</v>
       </c>
     </row>
     <row r="26">
@@ -37110,7 +37110,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>1331.80112758026</v>
+        <v>1450.910174634806</v>
       </c>
     </row>
     <row r="27">
@@ -37118,7 +37118,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>1803.037036388729</v>
+        <v>1422.570384737716</v>
       </c>
     </row>
     <row r="28">
@@ -37126,7 +37126,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>1805.746014878702</v>
+        <v>1313.427247098892</v>
       </c>
     </row>
     <row r="29">
@@ -37134,7 +37134,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>1439.49383690257</v>
+        <v>1655.2652061499</v>
       </c>
     </row>
     <row r="30">
@@ -37142,7 +37142,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>1532.68145005726</v>
+        <v>1624.580357424756</v>
       </c>
     </row>
     <row r="31">
@@ -37150,7 +37150,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>1596.138862603555</v>
+        <v>1729.616218752923</v>
       </c>
     </row>
     <row r="32">
@@ -37158,7 +37158,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>1569.123358433415</v>
+        <v>1845.837779446136</v>
       </c>
     </row>
     <row r="33">
@@ -37166,7 +37166,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>1462.013469882857</v>
+        <v>1552.379036074972</v>
       </c>
     </row>
     <row r="34">
@@ -37174,7 +37174,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="n">
-        <v>1492.535414083968</v>
+        <v>1672.327441919595</v>
       </c>
     </row>
     <row r="35">
@@ -37182,7 +37182,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="n">
-        <v>1470.993465107162</v>
+        <v>1526.654167189802</v>
       </c>
     </row>
     <row r="36">
@@ -37190,7 +37190,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="n">
-        <v>1768.356602515488</v>
+        <v>1735.577695557325</v>
       </c>
     </row>
     <row r="37">
@@ -37198,7 +37198,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>1805.885801320708</v>
+        <v>1351.553329754581</v>
       </c>
     </row>
     <row r="38">
@@ -37206,7 +37206,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>1634.931536200735</v>
+        <v>1874.073946026715</v>
       </c>
     </row>
     <row r="39">
@@ -37214,7 +37214,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="n">
-        <v>1427.025198784422</v>
+        <v>1751.29758629415</v>
       </c>
     </row>
     <row r="40">
@@ -37222,7 +37222,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="n">
-        <v>1662.036177922266</v>
+        <v>1397.242680023229</v>
       </c>
     </row>
     <row r="41">
@@ -37230,7 +37230,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="n">
-        <v>1765.345290201461</v>
+        <v>1806.075283608757</v>
       </c>
     </row>
     <row r="42">
@@ -37238,7 +37238,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="n">
-        <v>1336.585241552652</v>
+        <v>1646.261724327002</v>
       </c>
     </row>
     <row r="43">
@@ -37246,7 +37246,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="n">
-        <v>1802.70169897093</v>
+        <v>1421.803282485848</v>
       </c>
     </row>
     <row r="44">
@@ -37254,7 +37254,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="n">
-        <v>1792.097153776994</v>
+        <v>1743.70130901775</v>
       </c>
     </row>
     <row r="45">
@@ -37262,7 +37262,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="n">
-        <v>1569.93139079853</v>
+        <v>1761.731577889693</v>
       </c>
     </row>
     <row r="46">
@@ -37270,7 +37270,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="n">
-        <v>1740.24813824331</v>
+        <v>1423.115199706327</v>
       </c>
     </row>
     <row r="47">
@@ -37278,7 +37278,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="n">
-        <v>1424.80898103283</v>
+        <v>1632.108488001504</v>
       </c>
     </row>
     <row r="48">
@@ -37286,7 +37286,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="n">
-        <v>1674.602546482638</v>
+        <v>1649.218054934661</v>
       </c>
     </row>
     <row r="49">
@@ -37294,7 +37294,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="n">
-        <v>1414.421016835247</v>
+        <v>1694.188392663028</v>
       </c>
     </row>
     <row r="50">
@@ -37302,7 +37302,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="n">
-        <v>1415.652551001993</v>
+        <v>1358.615582342976</v>
       </c>
     </row>
     <row r="51">
@@ -37310,7 +37310,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="n">
-        <v>1429.45925343278</v>
+        <v>1422.324142672862</v>
       </c>
     </row>
     <row r="52">
@@ -37318,7 +37318,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="n">
-        <v>1632.365739765574</v>
+        <v>1531.528186830627</v>
       </c>
     </row>
     <row r="53">
@@ -37326,7 +37326,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="n">
-        <v>1374.324020657077</v>
+        <v>1690.643223297202</v>
       </c>
     </row>
     <row r="54">
@@ -37334,7 +37334,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="n">
-        <v>1392.845375758364</v>
+        <v>1505.343779995236</v>
       </c>
     </row>
     <row r="55">
@@ -37342,7 +37342,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="n">
-        <v>1431.13484604206</v>
+        <v>1353.70791627012</v>
       </c>
     </row>
     <row r="56">
@@ -37350,7 +37350,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="n">
-        <v>1733.542949757425</v>
+        <v>1619.120154304121</v>
       </c>
     </row>
     <row r="57">
@@ -37358,7 +37358,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="n">
-        <v>1752.686430464872</v>
+        <v>1547.406940860741</v>
       </c>
     </row>
     <row r="58">
@@ -37366,7 +37366,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="n">
-        <v>1402.005123838468</v>
+        <v>1536.805199174845</v>
       </c>
     </row>
     <row r="59">
@@ -37374,7 +37374,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="n">
-        <v>1870.38969703766</v>
+        <v>1802.952576630439</v>
       </c>
     </row>
     <row r="60">
@@ -37382,7 +37382,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="n">
-        <v>1734.533920039135</v>
+        <v>1463.596970723864</v>
       </c>
     </row>
     <row r="61">
@@ -37390,7 +37390,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="n">
-        <v>1869.441832087317</v>
+        <v>1805.37041697418</v>
       </c>
     </row>
     <row r="62">
@@ -37398,7 +37398,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="n">
-        <v>1286.429940014985</v>
+        <v>1781.746132175592</v>
       </c>
     </row>
     <row r="63">
@@ -37406,7 +37406,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>1759.678869876151</v>
+        <v>1326.837178918085</v>
       </c>
     </row>
     <row r="64">
@@ -37414,7 +37414,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>1551.121128457056</v>
+        <v>1516.409954816273</v>
       </c>
     </row>
     <row r="65">
@@ -37422,7 +37422,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="n">
-        <v>1665.37325058899</v>
+        <v>1634.511959911238</v>
       </c>
     </row>
     <row r="66">
@@ -37430,7 +37430,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="n">
-        <v>1474.499715295146</v>
+        <v>1676.87278605132</v>
       </c>
     </row>
     <row r="67">
@@ -37438,7 +37438,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="n">
-        <v>1324.914525030984</v>
+        <v>1656.166461007033</v>
       </c>
     </row>
     <row r="68">
@@ -37446,7 +37446,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="n">
-        <v>1554.678055751628</v>
+        <v>1636.362982027707</v>
       </c>
     </row>
     <row r="69">
@@ -37454,7 +37454,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>1771.767201717052</v>
+        <v>1613.435028972817</v>
       </c>
     </row>
     <row r="70">
@@ -37462,7 +37462,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>1404.571349551315</v>
+        <v>1798.971356073509</v>
       </c>
     </row>
     <row r="71">
@@ -37470,7 +37470,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="n">
-        <v>1595.15789576995</v>
+        <v>1635.53423103119</v>
       </c>
     </row>
     <row r="72">
@@ -37478,7 +37478,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="n">
-        <v>1550.046159512499</v>
+        <v>1716.74047393297</v>
       </c>
     </row>
     <row r="73">
@@ -37486,7 +37486,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="n">
-        <v>1447.397004217582</v>
+        <v>1558.847042927388</v>
       </c>
     </row>
     <row r="74">
@@ -37494,7 +37494,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="n">
-        <v>1823.168348738312</v>
+        <v>1702.952135210989</v>
       </c>
     </row>
     <row r="75">
@@ -37502,7 +37502,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="n">
-        <v>1756.972529844031</v>
+        <v>1707.091582362894</v>
       </c>
     </row>
     <row r="76">
@@ -37510,7 +37510,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="n">
-        <v>1476.337840000921</v>
+        <v>1707.125017570025</v>
       </c>
     </row>
     <row r="77">
@@ -37518,7 +37518,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="n">
-        <v>1795.953973310091</v>
+        <v>1482.622614041386</v>
       </c>
     </row>
     <row r="78">
@@ -37526,7 +37526,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="n">
-        <v>1434.447026060707</v>
+        <v>1380.099064954741</v>
       </c>
     </row>
     <row r="79">
@@ -37534,7 +37534,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="n">
-        <v>1758.70766556359</v>
+        <v>1737.73751736303</v>
       </c>
     </row>
     <row r="80">
@@ -37542,7 +37542,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="n">
-        <v>1357.186104772025</v>
+        <v>1407.093603869331</v>
       </c>
     </row>
     <row r="81">
@@ -37550,7 +37550,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="n">
-        <v>1730.887206593316</v>
+        <v>1431.294909089061</v>
       </c>
     </row>
     <row r="82">
@@ -37558,7 +37558,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="n">
-        <v>1608.374381320451</v>
+        <v>1509.438830840536</v>
       </c>
     </row>
     <row r="83">
@@ -37566,7 +37566,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="n">
-        <v>1835.907452625664</v>
+        <v>1414.832077480073</v>
       </c>
     </row>
     <row r="84">
@@ -37574,7 +37574,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="n">
-        <v>1734.002132560659</v>
+        <v>1391.684695268852</v>
       </c>
     </row>
     <row r="85">
@@ -37582,7 +37582,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="n">
-        <v>1524.633722310263</v>
+        <v>1593.141268360614</v>
       </c>
     </row>
     <row r="86">
@@ -37590,7 +37590,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="n">
-        <v>1374.394533254962</v>
+        <v>1792.802443449526</v>
       </c>
     </row>
     <row r="87">
@@ -37598,7 +37598,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="n">
-        <v>1718.611804688318</v>
+        <v>1442.864649969116</v>
       </c>
     </row>
     <row r="88">
@@ -37606,7 +37606,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="n">
-        <v>1687.65468439907</v>
+        <v>1735.903021772947</v>
       </c>
     </row>
     <row r="89">
@@ -37614,7 +37614,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="n">
-        <v>1502.773905222992</v>
+        <v>1882.383984338008</v>
       </c>
     </row>
     <row r="90">
@@ -37622,7 +37622,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="n">
-        <v>1814.241675262528</v>
+        <v>1366.5789238729</v>
       </c>
     </row>
     <row r="91">
@@ -37630,7 +37630,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="n">
-        <v>1815.269263988379</v>
+        <v>1832.094686499729</v>
       </c>
     </row>
     <row r="92">
@@ -37638,7 +37638,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="n">
-        <v>1417.24918964699</v>
+        <v>1730.994088035238</v>
       </c>
     </row>
     <row r="93">
@@ -37646,7 +37646,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="n">
-        <v>1613.204794872097</v>
+        <v>1340.545933178528</v>
       </c>
     </row>
     <row r="94">
@@ -37654,7 +37654,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="n">
-        <v>1586.157951846224</v>
+        <v>1314.601026463264</v>
       </c>
     </row>
     <row r="95">
@@ -37662,7 +37662,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="n">
-        <v>1723.458630424436</v>
+        <v>1852.27114459842</v>
       </c>
     </row>
     <row r="96">
@@ -37670,7 +37670,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="n">
-        <v>1766.530364521532</v>
+        <v>1802.240249531555</v>
       </c>
     </row>
     <row r="97">
@@ -37678,7 +37678,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="n">
-        <v>1362.300315577585</v>
+        <v>1599.996911407406</v>
       </c>
     </row>
     <row r="98">
@@ -37686,7 +37686,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="n">
-        <v>1460.443404271579</v>
+        <v>1534.184524982156</v>
       </c>
     </row>
     <row r="99">
@@ -37694,7 +37694,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="n">
-        <v>1415.888417570182</v>
+        <v>1793.936368004168</v>
       </c>
     </row>
     <row r="100">
@@ -37702,7 +37702,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="n">
-        <v>1656.723200056091</v>
+        <v>1355.172370147113</v>
       </c>
     </row>
     <row r="101">
@@ -37710,7 +37710,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="n">
-        <v>1586.880234646866</v>
+        <v>1370.834003677264</v>
       </c>
     </row>
     <row r="102">
@@ -37718,7 +37718,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>1715.303834498741</v>
+        <v>1817.385488098469</v>
       </c>
     </row>
     <row r="103">
@@ -37726,7 +37726,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>1524.865780768552</v>
+        <v>1404.674424572236</v>
       </c>
     </row>
     <row r="104">
@@ -37734,7 +37734,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>1318.554831727393</v>
+        <v>1620.138617667447</v>
       </c>
     </row>
     <row r="105">
@@ -37742,7 +37742,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>1700.542050698373</v>
+        <v>1452.812766885361</v>
       </c>
     </row>
     <row r="106">
@@ -37750,7 +37750,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>1583.202077562247</v>
+        <v>1678.404414756896</v>
       </c>
     </row>
     <row r="107">
@@ -37758,7 +37758,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="n">
-        <v>1566.097906460933</v>
+        <v>1724.305222960226</v>
       </c>
     </row>
     <row r="108">
@@ -37766,7 +37766,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="n">
-        <v>1616.793896390077</v>
+        <v>1487.305860214247</v>
       </c>
     </row>
     <row r="109">
@@ -37774,7 +37774,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="n">
-        <v>1491.742523356085</v>
+        <v>1810.870317429469</v>
       </c>
     </row>
     <row r="110">
@@ -37782,7 +37782,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="n">
-        <v>1443.688503973877</v>
+        <v>1718.732051694673</v>
       </c>
     </row>
     <row r="111">
@@ -37790,7 +37790,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="n">
-        <v>1637.39958284762</v>
+        <v>1383.373986485409</v>
       </c>
     </row>
     <row r="112">
@@ -37798,7 +37798,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="n">
-        <v>1573.001355220544</v>
+        <v>1696.857267689416</v>
       </c>
     </row>
     <row r="113">
@@ -37806,7 +37806,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="n">
-        <v>1416.60208768456</v>
+        <v>1840.574932195751</v>
       </c>
     </row>
     <row r="114">
@@ -37814,7 +37814,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="8" t="n">
-        <v>1844.425987872481</v>
+        <v>1629.070507130444</v>
       </c>
     </row>
     <row r="115">
@@ -37822,7 +37822,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="n">
-        <v>1574.89705679078</v>
+        <v>1646.294814222628</v>
       </c>
     </row>
     <row r="116">
@@ -37830,7 +37830,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="8" t="n">
-        <v>1695.872594487051</v>
+        <v>1690.506489914333</v>
       </c>
     </row>
     <row r="117">
@@ -37838,7 +37838,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="n">
-        <v>1670.069259077949</v>
+        <v>1585.684363559224</v>
       </c>
     </row>
     <row r="118">
@@ -37846,7 +37846,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="n">
-        <v>1790.152902617458</v>
+        <v>1363.714654184566</v>
       </c>
     </row>
     <row r="119">
@@ -37854,7 +37854,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="8" t="n">
-        <v>1285.391871350237</v>
+        <v>1827.522176849676</v>
       </c>
     </row>
     <row r="120">
@@ -37862,7 +37862,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="8" t="n">
-        <v>1503.902341117151</v>
+        <v>1353.797301100319</v>
       </c>
     </row>
     <row r="121">
@@ -37870,7 +37870,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="8" t="n">
-        <v>1606.696966667505</v>
+        <v>1437.484961122412</v>
       </c>
     </row>
     <row r="122">
@@ -37878,7 +37878,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="8" t="n">
-        <v>1449.781556340455</v>
+        <v>1731.666546144019</v>
       </c>
     </row>
     <row r="123">
@@ -37886,7 +37886,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="8" t="n">
-        <v>1471.537877479656</v>
+        <v>1696.664659581532</v>
       </c>
     </row>
     <row r="124">
@@ -37894,7 +37894,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="8" t="n">
-        <v>1671.433425274311</v>
+        <v>1478.521560001558</v>
       </c>
     </row>
     <row r="125">
@@ -37902,7 +37902,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="8" t="n">
-        <v>1866.783897342891</v>
+        <v>1660.133899265845</v>
       </c>
     </row>
     <row r="126">
@@ -37910,7 +37910,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="8" t="n">
-        <v>1477.9657815469</v>
+        <v>1582.006060374208</v>
       </c>
     </row>
     <row r="127">
@@ -37918,7 +37918,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="8" t="n">
-        <v>1398.673337080007</v>
+        <v>1356.263614468626</v>
       </c>
     </row>
     <row r="128">
@@ -37926,7 +37926,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="8" t="n">
-        <v>1709.178240035959</v>
+        <v>1773.033633046347</v>
       </c>
     </row>
     <row r="129">
@@ -37934,7 +37934,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="8" t="n">
-        <v>1481.369813329101</v>
+        <v>1761.627300040207</v>
       </c>
     </row>
     <row r="130">
@@ -37942,7 +37942,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="8" t="n">
-        <v>1588.700055854972</v>
+        <v>1450.460261409745</v>
       </c>
     </row>
     <row r="131">
@@ -37950,7 +37950,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="n">
-        <v>1758.432277549363</v>
+        <v>1844.482480089196</v>
       </c>
     </row>
     <row r="132">
@@ -37958,7 +37958,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="8" t="n">
-        <v>1849.199494307805</v>
+        <v>1481.803363816359</v>
       </c>
     </row>
     <row r="133">
@@ -37966,7 +37966,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="8" t="n">
-        <v>1425.478252550452</v>
+        <v>1812.490866592472</v>
       </c>
     </row>
     <row r="134">
@@ -37974,7 +37974,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="8" t="n">
-        <v>1428.495026328704</v>
+        <v>1789.579073578949</v>
       </c>
     </row>
     <row r="135">
@@ -37982,7 +37982,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="8" t="n">
-        <v>1473.811389817894</v>
+        <v>1668.061652874592</v>
       </c>
     </row>
     <row r="136">
@@ -37990,7 +37990,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="8" t="n">
-        <v>1342.956452227535</v>
+        <v>1652.78722693809</v>
       </c>
     </row>
     <row r="137">
@@ -37998,7 +37998,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="8" t="n">
-        <v>1563.563545369812</v>
+        <v>1639.704984820362</v>
       </c>
     </row>
     <row r="138">
@@ -38006,7 +38006,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="8" t="n">
-        <v>1761.604386744049</v>
+        <v>1812.285673393416</v>
       </c>
     </row>
     <row r="139">
@@ -38014,7 +38014,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="8" t="n">
-        <v>1867.871031598987</v>
+        <v>1633.192080060882</v>
       </c>
     </row>
     <row r="140">
@@ -38022,7 +38022,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="8" t="n">
-        <v>1481.9320969855</v>
+        <v>1631.235351870126</v>
       </c>
     </row>
     <row r="141">
@@ -38030,7 +38030,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="8" t="n">
-        <v>1872.705522692383</v>
+        <v>1724.973018432385</v>
       </c>
     </row>
     <row r="142">
@@ -38038,7 +38038,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="8" t="n">
-        <v>1663.484950639085</v>
+        <v>1659.766529971081</v>
       </c>
     </row>
     <row r="143">
@@ -38046,7 +38046,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="n">
-        <v>1843.396058883764</v>
+        <v>1412.476327646833</v>
       </c>
     </row>
     <row r="144">
@@ -38054,7 +38054,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="8" t="n">
-        <v>1781.659299236509</v>
+        <v>1593.638035051499</v>
       </c>
     </row>
     <row r="145">
@@ -38062,7 +38062,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="8" t="n">
-        <v>1717.568402084298</v>
+        <v>1831.862921592161</v>
       </c>
     </row>
     <row r="146">
@@ -38070,7 +38070,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="8" t="n">
-        <v>1570.038748999887</v>
+        <v>1752.894257138739</v>
       </c>
     </row>
     <row r="147">
@@ -38078,7 +38078,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="8" t="n">
-        <v>1545.628023557402</v>
+        <v>1437.147667043699</v>
       </c>
     </row>
     <row r="148">
@@ -38086,7 +38086,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="8" t="n">
-        <v>1774.249189150377</v>
+        <v>1654.063836435999</v>
       </c>
     </row>
     <row r="149">
@@ -38094,7 +38094,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="8" t="n">
-        <v>1877.844704545589</v>
+        <v>1474.970588242094</v>
       </c>
     </row>
     <row r="150">
@@ -38102,7 +38102,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="8" t="n">
-        <v>1636.918661143427</v>
+        <v>1435.756352238246</v>
       </c>
     </row>
     <row r="151">
@@ -38110,7 +38110,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="8" t="n">
-        <v>1623.576351961104</v>
+        <v>1841.210113609041</v>
       </c>
     </row>
     <row r="152">
@@ -38118,7 +38118,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="8" t="n">
-        <v>1352.598606859191</v>
+        <v>1753.613800252047</v>
       </c>
     </row>
     <row r="153">
@@ -38126,7 +38126,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="8" t="n">
-        <v>1721.366514783179</v>
+        <v>1572.955700323566</v>
       </c>
     </row>
     <row r="154">
@@ -38134,7 +38134,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="8" t="n">
-        <v>1505.561907704247</v>
+        <v>1390.641862217085</v>
       </c>
     </row>
     <row r="155">
@@ -38142,7 +38142,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="8" t="n">
-        <v>1805.050095026593</v>
+        <v>1649.772960606307</v>
       </c>
     </row>
     <row r="156">
@@ -38150,7 +38150,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="8" t="n">
-        <v>1745.882590495475</v>
+        <v>1704.29476380066</v>
       </c>
     </row>
     <row r="157">
@@ -38158,7 +38158,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="n">
-        <v>1433.000194982658</v>
+        <v>1574.187124618066</v>
       </c>
     </row>
     <row r="158">
@@ -38166,7 +38166,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="8" t="n">
-        <v>1527.786299962531</v>
+        <v>1395.016542933264</v>
       </c>
     </row>
     <row r="159">
@@ -38174,7 +38174,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="8" t="n">
-        <v>1655.775569916132</v>
+        <v>1718.569971876766</v>
       </c>
     </row>
     <row r="160">
@@ -38182,7 +38182,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="8" t="n">
-        <v>1440.068229943144</v>
+        <v>1759.774961438195</v>
       </c>
     </row>
     <row r="161">
@@ -38190,7 +38190,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="n">
-        <v>1429.309247179582</v>
+        <v>1817.318198776649</v>
       </c>
     </row>
     <row r="162">
@@ -38198,7 +38198,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="8" t="n">
-        <v>1503.503815748691</v>
+        <v>1427.556358147834</v>
       </c>
     </row>
     <row r="163">
@@ -38206,7 +38206,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="8" t="n">
-        <v>1802.098754164612</v>
+        <v>1473.192012105713</v>
       </c>
     </row>
     <row r="164">
@@ -38214,7 +38214,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="8" t="n">
-        <v>1715.692986987714</v>
+        <v>1373.614952629249</v>
       </c>
     </row>
     <row r="165">
@@ -38222,7 +38222,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="n">
-        <v>1691.987672351852</v>
+        <v>1526.141303086782</v>
       </c>
     </row>
     <row r="166">
@@ -38230,7 +38230,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="8" t="n">
-        <v>1458.179352441949</v>
+        <v>1541.299211318335</v>
       </c>
     </row>
     <row r="167">
@@ -38238,7 +38238,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="8" t="n">
-        <v>1284.511326430556</v>
+        <v>1296.069584955119</v>
       </c>
     </row>
     <row r="168">
@@ -38246,7 +38246,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="8" t="n">
-        <v>1888.521602374198</v>
+        <v>1784.392751481576</v>
       </c>
     </row>
     <row r="169">
@@ -38254,7 +38254,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="8" t="n">
-        <v>1699.622938029793</v>
+        <v>1338.632421235291</v>
       </c>
     </row>
     <row r="170">
@@ -38262,7 +38262,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="8" t="n">
-        <v>1683.819058958329</v>
+        <v>1769.244711026309</v>
       </c>
     </row>
     <row r="171">
@@ -38270,7 +38270,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="8" t="n">
-        <v>1575.185565015788</v>
+        <v>1415.293507064681</v>
       </c>
     </row>
     <row r="172">
@@ -38278,7 +38278,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="8" t="n">
-        <v>1684.707071435075</v>
+        <v>1370.55441021527</v>
       </c>
     </row>
     <row r="173">
@@ -38286,7 +38286,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="8" t="n">
-        <v>1875.723952705236</v>
+        <v>1305.447273722302</v>
       </c>
     </row>
     <row r="174">
@@ -38294,7 +38294,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="8" t="n">
-        <v>1447.859858921335</v>
+        <v>1344.868525624743</v>
       </c>
     </row>
     <row r="175">
@@ -38302,7 +38302,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="8" t="n">
-        <v>1488.087283756639</v>
+        <v>1434.27942286609</v>
       </c>
     </row>
     <row r="176">
@@ -38310,7 +38310,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="8" t="n">
-        <v>1455.324781447798</v>
+        <v>1659.0928256523</v>
       </c>
     </row>
     <row r="177">
@@ -38318,7 +38318,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="8" t="n">
-        <v>1420.300686167189</v>
+        <v>1401.875417942473</v>
       </c>
     </row>
     <row r="178">
@@ -38326,7 +38326,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="8" t="n">
-        <v>1451.459674281208</v>
+        <v>1738.137953743309</v>
       </c>
     </row>
     <row r="179">
@@ -38334,7 +38334,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="8" t="n">
-        <v>1404.64565664591</v>
+        <v>1663.606236409291</v>
       </c>
     </row>
     <row r="180">
@@ -38342,7 +38342,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="8" t="n">
-        <v>1655.286959299948</v>
+        <v>1280.133012124803</v>
       </c>
     </row>
     <row r="181">
@@ -38350,7 +38350,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="8" t="n">
-        <v>1680.911478273804</v>
+        <v>1377.252463192028</v>
       </c>
     </row>
     <row r="182">
@@ -38358,7 +38358,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="8" t="n">
-        <v>1880.780061231395</v>
+        <v>1652.450947320606</v>
       </c>
     </row>
     <row r="183">
@@ -38366,7 +38366,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="8" t="n">
-        <v>1467.846167155239</v>
+        <v>1532.1522535368</v>
       </c>
     </row>
     <row r="184">
@@ -38374,7 +38374,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="8" t="n">
-        <v>1705.188240617794</v>
+        <v>1734.239285414405</v>
       </c>
     </row>
     <row r="185">
@@ -38382,7 +38382,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="8" t="n">
-        <v>1365.707657712934</v>
+        <v>1713.340828313486</v>
       </c>
     </row>
     <row r="186">
@@ -38390,7 +38390,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="8" t="n">
-        <v>1454.831391535002</v>
+        <v>1529.819453639986</v>
       </c>
     </row>
     <row r="187">
@@ -38398,7 +38398,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="8" t="n">
-        <v>1491.512761627978</v>
+        <v>1471.134835036455</v>
       </c>
     </row>
     <row r="188">
@@ -38406,7 +38406,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="8" t="n">
-        <v>1438.386243228978</v>
+        <v>1631.052215295462</v>
       </c>
     </row>
     <row r="189">
@@ -38414,7 +38414,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="8" t="n">
-        <v>1659.932159868087</v>
+        <v>1591.995840036796</v>
       </c>
     </row>
     <row r="190">
@@ -38422,7 +38422,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="8" t="n">
-        <v>1415.444369538905</v>
+        <v>1627.000563800243</v>
       </c>
     </row>
     <row r="191">
@@ -38430,7 +38430,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="8" t="n">
-        <v>1787.228919525209</v>
+        <v>1336.939669920812</v>
       </c>
     </row>
     <row r="192">
@@ -38438,7 +38438,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="8" t="n">
-        <v>1633.178299639243</v>
+        <v>1805.407097624473</v>
       </c>
     </row>
     <row r="193">
@@ -38446,7 +38446,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="8" t="n">
-        <v>1819.725615572544</v>
+        <v>1695.657061657835</v>
       </c>
     </row>
     <row r="194">
@@ -38454,7 +38454,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="8" t="n">
-        <v>1644.646834642953</v>
+        <v>1594.329013165397</v>
       </c>
     </row>
     <row r="195">
@@ -38462,7 +38462,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="8" t="n">
-        <v>1852.068648609529</v>
+        <v>1807.218174190035</v>
       </c>
     </row>
     <row r="196">
@@ -38470,7 +38470,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="8" t="n">
-        <v>1783.674872181759</v>
+        <v>1768.579391158339</v>
       </c>
     </row>
     <row r="197">
@@ -38478,7 +38478,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="8" t="n">
-        <v>1682.738668374588</v>
+        <v>1444.065866610292</v>
       </c>
     </row>
     <row r="198">
@@ -38486,7 +38486,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="8" t="n">
-        <v>1609.062956297004</v>
+        <v>1531.730890837231</v>
       </c>
     </row>
     <row r="199">
@@ -38494,7 +38494,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="8" t="n">
-        <v>1796.051529658241</v>
+        <v>1544.166577462406</v>
       </c>
     </row>
     <row r="200">
@@ -38502,7 +38502,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="8" t="n">
-        <v>1546.436253195962</v>
+        <v>1289.197113127542</v>
       </c>
     </row>
     <row r="201">
@@ -38510,7 +38510,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="8" t="n">
-        <v>1500.145751881869</v>
+        <v>1550.117055909138</v>
       </c>
     </row>
     <row r="202">
@@ -38518,7 +38518,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="8" t="n">
-        <v>1604.688437430655</v>
+        <v>1254.570421069461</v>
       </c>
     </row>
     <row r="203">
@@ -38526,7 +38526,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="8" t="n">
-        <v>1462.961961186277</v>
+        <v>1740.724737861151</v>
       </c>
     </row>
     <row r="204">
@@ -38534,7 +38534,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="8" t="n">
-        <v>1304.036318214134</v>
+        <v>1649.936073767334</v>
       </c>
     </row>
     <row r="205">
@@ -38542,7 +38542,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="8" t="n">
-        <v>1745.622176686039</v>
+        <v>1818.132494919965</v>
       </c>
     </row>
     <row r="206">
@@ -38550,7 +38550,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="8" t="n">
-        <v>1402.290662699397</v>
+        <v>1800.088181121618</v>
       </c>
     </row>
     <row r="207">
@@ -38558,7 +38558,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="8" t="n">
-        <v>1813.311181232069</v>
+        <v>1592.806977267549</v>
       </c>
     </row>
     <row r="208">
@@ -38566,7 +38566,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="n">
-        <v>1884.111386096279</v>
+        <v>1601.172379117622</v>
       </c>
     </row>
     <row r="209">
@@ -38574,7 +38574,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="8" t="n">
-        <v>1439.864045117261</v>
+        <v>1623.155628359517</v>
       </c>
     </row>
     <row r="210">
@@ -38582,7 +38582,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="8" t="n">
-        <v>1598.361064830083</v>
+        <v>1566.802280996371</v>
       </c>
     </row>
     <row r="211">
@@ -38590,7 +38590,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="8" t="n">
-        <v>1793.630021996766</v>
+        <v>1478.139695503982</v>
       </c>
     </row>
     <row r="212">
@@ -38598,7 +38598,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="8" t="n">
-        <v>1599.815359232882</v>
+        <v>1410.674324027482</v>
       </c>
     </row>
     <row r="213">
@@ -38606,7 +38606,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="8" t="n">
-        <v>1345.660776058957</v>
+        <v>1811.470724321199</v>
       </c>
     </row>
     <row r="214">
@@ -38614,7 +38614,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="8" t="n">
-        <v>1593.524512785486</v>
+        <v>1694.154267107593</v>
       </c>
     </row>
     <row r="215">
@@ -38622,7 +38622,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="8" t="n">
-        <v>1322.76564333594</v>
+        <v>1578.371547621246</v>
       </c>
     </row>
     <row r="216">
@@ -38630,7 +38630,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="8" t="n">
-        <v>1307.61146125859</v>
+        <v>1770.464724390442</v>
       </c>
     </row>
     <row r="217">
@@ -38638,7 +38638,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="8" t="n">
-        <v>1553.287642451104</v>
+        <v>1511.637650131767</v>
       </c>
     </row>
     <row r="218">
@@ -38646,7 +38646,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="8" t="n">
-        <v>1405.094706407688</v>
+        <v>1458.475648069908</v>
       </c>
     </row>
     <row r="219">
@@ -38654,7 +38654,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="8" t="n">
-        <v>1836.504064544576</v>
+        <v>1731.881044976846</v>
       </c>
     </row>
     <row r="220">
@@ -38662,7 +38662,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="8" t="n">
-        <v>1521.591136151089</v>
+        <v>1339.585618832821</v>
       </c>
     </row>
     <row r="221">
@@ -38670,7 +38670,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="8" t="n">
-        <v>1459.486960721641</v>
+        <v>1737.937696962014</v>
       </c>
     </row>
     <row r="222">
@@ -38678,7 +38678,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="8" t="n">
-        <v>1589.722594519467</v>
+        <v>1711.106809564741</v>
       </c>
     </row>
     <row r="223">
@@ -38686,7 +38686,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="8" t="n">
-        <v>1640.837731638487</v>
+        <v>1526.0865864892</v>
       </c>
     </row>
     <row r="224">
@@ -38694,7 +38694,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="n">
-        <v>1658.987316465448</v>
+        <v>1644.506231933468</v>
       </c>
     </row>
     <row r="225">
@@ -38702,7 +38702,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="8" t="n">
-        <v>1439.255955395735</v>
+        <v>1565.033989650012</v>
       </c>
     </row>
     <row r="226">
@@ -38710,7 +38710,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="8" t="n">
-        <v>1649.163073714618</v>
+        <v>1764.291429370092</v>
       </c>
     </row>
     <row r="227">
@@ -38718,7 +38718,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="8" t="n">
-        <v>1770.572206196358</v>
+        <v>1587.558813676771</v>
       </c>
     </row>
     <row r="228">
@@ -38726,7 +38726,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="8" t="n">
-        <v>1781.293741427986</v>
+        <v>1654.627076454326</v>
       </c>
     </row>
     <row r="229">
@@ -38734,7 +38734,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="8" t="n">
-        <v>1443.574657964141</v>
+        <v>1790.791288608165</v>
       </c>
     </row>
     <row r="230">
@@ -38742,7 +38742,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="8" t="n">
-        <v>1539.428560244353</v>
+        <v>1300.543922531965</v>
       </c>
     </row>
     <row r="231">
@@ -38750,7 +38750,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="8" t="n">
-        <v>1452.917773466718</v>
+        <v>1534.432620801743</v>
       </c>
     </row>
     <row r="232">
@@ -38758,7 +38758,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="8" t="n">
-        <v>1612.053008805141</v>
+        <v>1762.170691582705</v>
       </c>
     </row>
     <row r="233">
@@ -38766,7 +38766,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="8" t="n">
-        <v>1692.337087787389</v>
+        <v>1292.186337856527</v>
       </c>
     </row>
     <row r="234">
@@ -38774,7 +38774,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="8" t="n">
-        <v>1605.132608453102</v>
+        <v>1676.285937910003</v>
       </c>
     </row>
     <row r="235">
@@ -38782,7 +38782,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="8" t="n">
-        <v>1656.354897773096</v>
+        <v>1798.476458198016</v>
       </c>
     </row>
     <row r="236">
@@ -38790,7 +38790,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="8" t="n">
-        <v>1635.331482875393</v>
+        <v>1609.48471407148</v>
       </c>
     </row>
     <row r="237">
@@ -38798,7 +38798,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="8" t="n">
-        <v>1505.067418842061</v>
+        <v>1642.224911950227</v>
       </c>
     </row>
     <row r="238">
@@ -38806,7 +38806,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="8" t="n">
-        <v>1712.998176696527</v>
+        <v>1513.470963986584</v>
       </c>
     </row>
     <row r="239">
@@ -38814,7 +38814,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="8" t="n">
-        <v>1498.088077054196</v>
+        <v>1486.390833159669</v>
       </c>
     </row>
     <row r="240">
@@ -38822,7 +38822,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="8" t="n">
-        <v>1724.803679526818</v>
+        <v>1516.766242700254</v>
       </c>
     </row>
     <row r="241">
@@ -38830,7 +38830,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="8" t="n">
-        <v>1857.444467042435</v>
+        <v>1271.700248517816</v>
       </c>
     </row>
     <row r="242">
@@ -38838,7 +38838,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="8" t="n">
-        <v>1353.329515954486</v>
+        <v>1683.487253286011</v>
       </c>
     </row>
     <row r="243">
@@ -38846,7 +38846,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="8" t="n">
-        <v>1591.863175127196</v>
+        <v>1528.471242349599</v>
       </c>
     </row>
     <row r="244">
@@ -38854,7 +38854,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="8" t="n">
-        <v>1622.843436765074</v>
+        <v>1795.714169893776</v>
       </c>
     </row>
     <row r="245">
@@ -38862,7 +38862,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="8" t="n">
-        <v>1579.446328760095</v>
+        <v>1793.96297975911</v>
       </c>
     </row>
     <row r="246">
@@ -38870,7 +38870,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="8" t="n">
-        <v>1380.427392707894</v>
+        <v>1473.00331336825</v>
       </c>
     </row>
     <row r="247">
@@ -38878,7 +38878,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="8" t="n">
-        <v>1311.357217820908</v>
+        <v>1438.490038928228</v>
       </c>
     </row>
     <row r="248">
@@ -38886,7 +38886,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="8" t="n">
-        <v>1448.515099460296</v>
+        <v>1636.782887035555</v>
       </c>
     </row>
     <row r="249">
@@ -38894,7 +38894,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="8" t="n">
-        <v>1687.698173400791</v>
+        <v>1640.115732801868</v>
       </c>
     </row>
     <row r="250">
@@ -38902,7 +38902,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="8" t="n">
-        <v>1447.06292363085</v>
+        <v>1457.460724639302</v>
       </c>
     </row>
     <row r="251">
@@ -38910,7 +38910,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="8" t="n">
-        <v>1643.217139607064</v>
+        <v>1610.409763124951</v>
       </c>
     </row>
     <row r="252">
@@ -38918,7 +38918,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="8" t="n">
-        <v>1784.687804873449</v>
+        <v>1674.489064012845</v>
       </c>
     </row>
     <row r="253">
@@ -38926,7 +38926,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="8" t="n">
-        <v>1837.365640397237</v>
+        <v>1364.164534730535</v>
       </c>
     </row>
     <row r="254">
@@ -38934,7 +38934,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="8" t="n">
-        <v>1372.810962970095</v>
+        <v>1803.112472587766</v>
       </c>
     </row>
     <row r="255">
@@ -38942,7 +38942,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="8" t="n">
-        <v>1315.894988783375</v>
+        <v>1577.645458917129</v>
       </c>
     </row>
     <row r="256">
@@ -38950,7 +38950,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="8" t="n">
-        <v>1342.986667762661</v>
+        <v>1328.423131197623</v>
       </c>
     </row>
     <row r="257">
@@ -38958,7 +38958,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="8" t="n">
-        <v>1511.795380445707</v>
+        <v>1730.025961833417</v>
       </c>
     </row>
     <row r="258">
@@ -38966,7 +38966,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="8" t="n">
-        <v>1594.212947605495</v>
+        <v>1410.852489874897</v>
       </c>
     </row>
     <row r="259">
@@ -38974,7 +38974,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="8" t="n">
-        <v>1648.698751114689</v>
+        <v>1362.632101764512</v>
       </c>
     </row>
     <row r="260">
@@ -38982,7 +38982,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="8" t="n">
-        <v>1436.519436867505</v>
+        <v>1560.889326021752</v>
       </c>
     </row>
     <row r="261">
@@ -38990,7 +38990,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="8" t="n">
-        <v>1461.467058572269</v>
+        <v>1389.976290698536</v>
       </c>
     </row>
     <row r="262">
@@ -38998,7 +38998,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="8" t="n">
-        <v>1807.134598118257</v>
+        <v>1542.635141257913</v>
       </c>
     </row>
     <row r="263">
@@ -39006,7 +39006,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="8" t="n">
-        <v>1523.980453258941</v>
+        <v>1699.049323855497</v>
       </c>
     </row>
     <row r="264">
@@ -39014,7 +39014,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="8" t="n">
-        <v>1826.670977932788</v>
+        <v>1649.398604503444</v>
       </c>
     </row>
     <row r="265">
@@ -39022,7 +39022,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="n">
-        <v>1428.494864008102</v>
+        <v>1674.982651379017</v>
       </c>
     </row>
     <row r="266">
@@ -39030,7 +39030,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="8" t="n">
-        <v>1551.228333375775</v>
+        <v>1488.516624458753</v>
       </c>
     </row>
     <row r="267">
@@ -39038,7 +39038,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="8" t="n">
-        <v>1561.17825779955</v>
+        <v>1692.868856004965</v>
       </c>
     </row>
     <row r="268">
@@ -39046,7 +39046,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="8" t="n">
-        <v>1676.19773955965</v>
+        <v>1754.097191738978</v>
       </c>
     </row>
     <row r="269">
@@ -39054,7 +39054,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="8" t="n">
-        <v>1830.471651938878</v>
+        <v>1440.847975623324</v>
       </c>
     </row>
     <row r="270">
@@ -39062,7 +39062,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="8" t="n">
-        <v>1389.079471579182</v>
+        <v>1442.207566331152</v>
       </c>
     </row>
     <row r="271">
@@ -39070,7 +39070,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="8" t="n">
-        <v>1497.694003547242</v>
+        <v>1463.945565288958</v>
       </c>
     </row>
     <row r="272">
@@ -39078,7 +39078,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="8" t="n">
-        <v>1445.237123049625</v>
+        <v>1814.519627987735</v>
       </c>
     </row>
     <row r="273">
@@ -39086,7 +39086,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="8" t="n">
-        <v>1705.845928516081</v>
+        <v>1640.035693622944</v>
       </c>
     </row>
     <row r="274">
@@ -39094,7 +39094,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="8" t="n">
-        <v>1811.529460575453</v>
+        <v>1831.615744487258</v>
       </c>
     </row>
     <row r="275">
@@ -39102,7 +39102,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="8" t="n">
-        <v>1406.6366666003</v>
+        <v>1798.14425993643</v>
       </c>
     </row>
     <row r="276">
@@ -39110,7 +39110,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="8" t="n">
-        <v>1397.75723134713</v>
+        <v>1441.856467653229</v>
       </c>
     </row>
     <row r="277">
@@ -39118,7 +39118,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="8" t="n">
-        <v>1842.180426252251</v>
+        <v>1445.801139838992</v>
       </c>
     </row>
     <row r="278">
@@ -39126,7 +39126,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="8" t="n">
-        <v>1617.96090755674</v>
+        <v>1720.043784793878</v>
       </c>
     </row>
     <row r="279">
@@ -39134,7 +39134,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="8" t="n">
-        <v>1798.426361212972</v>
+        <v>1734.394967389459</v>
       </c>
     </row>
     <row r="280">
@@ -39142,7 +39142,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="8" t="n">
-        <v>1669.834308006037</v>
+        <v>1770.447713038694</v>
       </c>
     </row>
     <row r="281">
@@ -39150,7 +39150,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="8" t="n">
-        <v>1851.070114171345</v>
+        <v>1743.428870643615</v>
       </c>
     </row>
     <row r="282">
@@ -39158,7 +39158,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="8" t="n">
-        <v>1648.758438600952</v>
+        <v>1607.190650046359</v>
       </c>
     </row>
     <row r="283">
@@ -39166,7 +39166,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="8" t="n">
-        <v>1560.496479334807</v>
+        <v>1331.55851509185</v>
       </c>
     </row>
     <row r="284">
@@ -39174,7 +39174,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="8" t="n">
-        <v>1434.342944994532</v>
+        <v>1634.395369548056</v>
       </c>
     </row>
     <row r="285">
@@ -39182,7 +39182,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="8" t="n">
-        <v>1416.732796225844</v>
+        <v>1291.839525190093</v>
       </c>
     </row>
     <row r="286">
@@ -39190,7 +39190,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="8" t="n">
-        <v>1399.748591206084</v>
+        <v>1472.589269658788</v>
       </c>
     </row>
     <row r="287">
@@ -39198,7 +39198,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="8" t="n">
-        <v>1719.777957888393</v>
+        <v>1417.694520315135</v>
       </c>
     </row>
     <row r="288">
@@ -39206,7 +39206,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="8" t="n">
-        <v>1346.639467780797</v>
+        <v>1630.202276013492</v>
       </c>
     </row>
     <row r="289">
@@ -39214,7 +39214,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="8" t="n">
-        <v>1426.275966459452</v>
+        <v>1686.068321253479</v>
       </c>
     </row>
     <row r="290">
@@ -39222,7 +39222,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="8" t="n">
-        <v>1862.892467525234</v>
+        <v>1354.929572348719</v>
       </c>
     </row>
     <row r="291">
@@ -39230,7 +39230,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="8" t="n">
-        <v>1601.899364899887</v>
+        <v>1578.403554895244</v>
       </c>
     </row>
     <row r="292">
@@ -39238,7 +39238,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="8" t="n">
-        <v>1708.993471696817</v>
+        <v>1449.476445555627</v>
       </c>
     </row>
     <row r="293">
@@ -39246,7 +39246,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="8" t="n">
-        <v>1622.66178813025</v>
+        <v>1416.742127177368</v>
       </c>
     </row>
     <row r="294">
@@ -39254,7 +39254,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="8" t="n">
-        <v>1482.206194011277</v>
+        <v>1579.163106469576</v>
       </c>
     </row>
     <row r="295">
@@ -39262,7 +39262,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="8" t="n">
-        <v>1561.629003692836</v>
+        <v>1810.636770329939</v>
       </c>
     </row>
     <row r="296">
@@ -39270,7 +39270,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="8" t="n">
-        <v>1795.335393558821</v>
+        <v>1394.117195685106</v>
       </c>
     </row>
     <row r="297">
@@ -39278,7 +39278,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="8" t="n">
-        <v>1719.828510142863</v>
+        <v>1424.97344774152</v>
       </c>
     </row>
     <row r="298">
@@ -39286,7 +39286,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="8" t="n">
-        <v>1449.365640819115</v>
+        <v>1580.493016272495</v>
       </c>
     </row>
     <row r="299">
@@ -39294,7 +39294,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="8" t="n">
-        <v>1754.528627938144</v>
+        <v>1315.823880291962</v>
       </c>
     </row>
     <row r="300">
@@ -39302,7 +39302,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="8" t="n">
-        <v>1434.614833407059</v>
+        <v>1732.745089696303</v>
       </c>
     </row>
     <row r="301">
@@ -39310,7 +39310,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="8" t="n">
-        <v>1787.465068611213</v>
+        <v>1510.89168758665</v>
       </c>
     </row>
     <row r="302">
@@ -39318,7 +39318,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="8" t="n">
-        <v>1349.442326246658</v>
+        <v>1733.315043684449</v>
       </c>
     </row>
     <row r="303">
@@ -39326,7 +39326,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="8" t="n">
-        <v>1799.051274421274</v>
+        <v>1448.030873599049</v>
       </c>
     </row>
     <row r="304">
@@ -39334,7 +39334,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="8" t="n">
-        <v>1598.302351260323</v>
+        <v>1328.188649524816</v>
       </c>
     </row>
     <row r="305">
@@ -39342,7 +39342,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="8" t="n">
-        <v>1312.73337008483</v>
+        <v>1318.265510914579</v>
       </c>
     </row>
     <row r="306">
@@ -39350,7 +39350,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="8" t="n">
-        <v>1709.088742735966</v>
+        <v>1429.563242743698</v>
       </c>
     </row>
     <row r="307">
@@ -39358,7 +39358,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="8" t="n">
-        <v>1417.510864047731</v>
+        <v>1467.663948596345</v>
       </c>
     </row>
     <row r="308">
@@ -39366,7 +39366,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="8" t="n">
-        <v>1764.897526885418</v>
+        <v>1721.759327255858</v>
       </c>
     </row>
     <row r="309">
@@ -39374,7 +39374,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="8" t="n">
-        <v>1664.485299219201</v>
+        <v>1561.404782489623</v>
       </c>
     </row>
     <row r="310">
@@ -39382,7 +39382,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="8" t="n">
-        <v>1443.969845914465</v>
+        <v>1694.830110023427</v>
       </c>
     </row>
     <row r="311">
@@ -39390,7 +39390,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="8" t="n">
-        <v>1350.727581623192</v>
+        <v>1841.899633093505</v>
       </c>
     </row>
     <row r="312">
@@ -39398,7 +39398,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="8" t="n">
-        <v>1618.128508016642</v>
+        <v>1596.761434028727</v>
       </c>
     </row>
     <row r="313">
@@ -39406,7 +39406,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="8" t="n">
-        <v>1833.988688256158</v>
+        <v>1625.269681879802</v>
       </c>
     </row>
     <row r="314">
@@ -39414,7 +39414,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="8" t="n">
-        <v>1656.208913360485</v>
+        <v>1574.713720683727</v>
       </c>
     </row>
     <row r="315">
@@ -39422,7 +39422,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="8" t="n">
-        <v>1376.971167885782</v>
+        <v>1404.205105339324</v>
       </c>
     </row>
     <row r="316">
@@ -39430,7 +39430,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="8" t="n">
-        <v>1810.356111289184</v>
+        <v>1555.057809886749</v>
       </c>
     </row>
     <row r="317">
@@ -39438,7 +39438,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="8" t="n">
-        <v>1652.25167234346</v>
+        <v>1655.849964564464</v>
       </c>
     </row>
     <row r="318">
@@ -39446,7 +39446,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="8" t="n">
-        <v>1344.421717513165</v>
+        <v>1524.46859558159</v>
       </c>
     </row>
     <row r="319">
@@ -39454,7 +39454,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="8" t="n">
-        <v>1698.662772003562</v>
+        <v>1731.496613420145</v>
       </c>
     </row>
     <row r="320">
@@ -39462,7 +39462,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="8" t="n">
-        <v>1764.79092576126</v>
+        <v>1663.173045349288</v>
       </c>
     </row>
     <row r="321">
@@ -39470,7 +39470,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="8" t="n">
-        <v>1548.302614331928</v>
+        <v>1692.263275546538</v>
       </c>
     </row>
     <row r="322">
@@ -39478,7 +39478,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="8" t="n">
-        <v>1627.461206587959</v>
+        <v>1837.003169122097</v>
       </c>
     </row>
     <row r="323">
@@ -39486,7 +39486,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="8" t="n">
-        <v>1436.523579161955</v>
+        <v>1476.302392201767</v>
       </c>
     </row>
     <row r="324">
@@ -39494,7 +39494,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="8" t="n">
-        <v>1483.041015395847</v>
+        <v>1827.682122283115</v>
       </c>
     </row>
     <row r="325">
@@ -39502,7 +39502,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="8" t="n">
-        <v>1719.717973297864</v>
+        <v>1779.414819078724</v>
       </c>
     </row>
     <row r="326">
@@ -39510,7 +39510,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="8" t="n">
-        <v>1483.869170440365</v>
+        <v>1752.49557280083</v>
       </c>
     </row>
     <row r="327">
@@ -39518,7 +39518,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="8" t="n">
-        <v>1443.038423525725</v>
+        <v>1519.952453916998</v>
       </c>
     </row>
     <row r="328">
@@ -39526,7 +39526,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="8" t="n">
-        <v>1802.105058293619</v>
+        <v>1544.83829233756</v>
       </c>
     </row>
     <row r="329">
@@ -39534,7 +39534,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="8" t="n">
-        <v>1303.474281085703</v>
+        <v>1756.949037580218</v>
       </c>
     </row>
     <row r="330">
@@ -39542,7 +39542,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="8" t="n">
-        <v>1380.460636094967</v>
+        <v>1463.296594835816</v>
       </c>
     </row>
     <row r="331">
@@ -39550,7 +39550,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="8" t="n">
-        <v>1864.363930329807</v>
+        <v>1286.052939901863</v>
       </c>
     </row>
     <row r="332">
@@ -39558,7 +39558,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="8" t="n">
-        <v>1594.394535231794</v>
+        <v>1651.483633140679</v>
       </c>
     </row>
     <row r="333">
@@ -39566,7 +39566,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="8" t="n">
-        <v>1741.19037238669</v>
+        <v>1549.388512037271</v>
       </c>
     </row>
     <row r="334">
@@ -39574,7 +39574,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="8" t="n">
-        <v>1437.120660263086</v>
+        <v>1434.241712634963</v>
       </c>
     </row>
     <row r="335">
@@ -39582,7 +39582,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="8" t="n">
-        <v>1575.248325388879</v>
+        <v>1555.361999838915</v>
       </c>
     </row>
     <row r="336">
@@ -39590,7 +39590,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="8" t="n">
-        <v>1521.456573027386</v>
+        <v>1692.843571191228</v>
       </c>
     </row>
     <row r="337">
@@ -39598,7 +39598,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="8" t="n">
-        <v>1564.820502610398</v>
+        <v>1738.472619263855</v>
       </c>
     </row>
     <row r="338">
@@ -39606,7 +39606,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="8" t="n">
-        <v>1552.214725454537</v>
+        <v>1408.834549915115</v>
       </c>
     </row>
     <row r="339">
@@ -39614,7 +39614,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="8" t="n">
-        <v>1459.595482787451</v>
+        <v>1730.205072353734</v>
       </c>
     </row>
     <row r="340">
@@ -39622,7 +39622,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="8" t="n">
-        <v>1609.10868636363</v>
+        <v>1293.460698857338</v>
       </c>
     </row>
     <row r="341">
@@ -39630,7 +39630,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="8" t="n">
-        <v>1377.02999534962</v>
+        <v>1692.479975355358</v>
       </c>
     </row>
     <row r="342">
@@ -39638,7 +39638,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="8" t="n">
-        <v>1738.369823842499</v>
+        <v>1362.882384988216</v>
       </c>
     </row>
     <row r="343">
@@ -39646,7 +39646,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="8" t="n">
-        <v>1446.444387632666</v>
+        <v>1474.74272609076</v>
       </c>
     </row>
     <row r="344">
@@ -39654,7 +39654,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="8" t="n">
-        <v>1367.253009368217</v>
+        <v>1658.053593907443</v>
       </c>
     </row>
     <row r="345">
@@ -39662,7 +39662,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="8" t="n">
-        <v>1689.752539839089</v>
+        <v>1859.605717190168</v>
       </c>
     </row>
     <row r="346">
@@ -39670,7 +39670,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="8" t="n">
-        <v>1533.377396621603</v>
+        <v>1637.059835573005</v>
       </c>
     </row>
     <row r="347">
@@ -39678,7 +39678,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="8" t="n">
-        <v>1732.986919570088</v>
+        <v>1393.323917618143</v>
       </c>
     </row>
     <row r="348">
@@ -39686,7 +39686,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="8" t="n">
-        <v>1747.876561335001</v>
+        <v>1492.893725614027</v>
       </c>
     </row>
     <row r="349">
@@ -39694,7 +39694,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="8" t="n">
-        <v>1618.229887675995</v>
+        <v>1755.333627527819</v>
       </c>
     </row>
     <row r="350">
@@ -39702,7 +39702,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="8" t="n">
-        <v>1514.026716272599</v>
+        <v>1847.25944049519</v>
       </c>
     </row>
     <row r="351">
@@ -39710,7 +39710,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="8" t="n">
-        <v>1563.49892831646</v>
+        <v>1653.107168904136</v>
       </c>
     </row>
     <row r="352">
@@ -39718,7 +39718,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="8" t="n">
-        <v>1376.748734060013</v>
+        <v>1355.930924912387</v>
       </c>
     </row>
     <row r="353">
@@ -39726,7 +39726,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="8" t="n">
-        <v>1847.840535271454</v>
+        <v>1728.09823516866</v>
       </c>
     </row>
     <row r="354">
@@ -39734,7 +39734,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="8" t="n">
-        <v>1464.169900676656</v>
+        <v>1441.387628304177</v>
       </c>
     </row>
     <row r="355">
@@ -39742,7 +39742,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="8" t="n">
-        <v>1733.153615087784</v>
+        <v>1822.025113161388</v>
       </c>
     </row>
     <row r="356">
@@ -39750,7 +39750,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="8" t="n">
-        <v>1601.153035283107</v>
+        <v>1502.102809103905</v>
       </c>
     </row>
     <row r="357">
@@ -39758,7 +39758,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="8" t="n">
-        <v>1327.222325505167</v>
+        <v>1376.17008854825</v>
       </c>
     </row>
     <row r="358">
@@ -39766,7 +39766,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="8" t="n">
-        <v>1266.36611035075</v>
+        <v>1405.103238318907</v>
       </c>
     </row>
     <row r="359">
@@ -39774,7 +39774,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="8" t="n">
-        <v>1816.774406355169</v>
+        <v>1525.715191309963</v>
       </c>
     </row>
     <row r="360">
@@ -39782,7 +39782,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="8" t="n">
-        <v>1692.57143662622</v>
+        <v>1765.548601489817</v>
       </c>
     </row>
     <row r="361">
@@ -39790,7 +39790,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="8" t="n">
-        <v>1621.385798559402</v>
+        <v>1781.154509168149</v>
       </c>
     </row>
     <row r="362">
@@ -39798,7 +39798,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="8" t="n">
-        <v>1574.334861100692</v>
+        <v>1662.734311431377</v>
       </c>
     </row>
     <row r="363">
@@ -39806,7 +39806,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="8" t="n">
-        <v>1529.650184330497</v>
+        <v>1652.455656369138</v>
       </c>
     </row>
     <row r="364">
@@ -39814,7 +39814,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="8" t="n">
-        <v>1770.484948766379</v>
+        <v>1801.432048519716</v>
       </c>
     </row>
     <row r="365">
@@ -39822,7 +39822,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="8" t="n">
-        <v>1520.368675104478</v>
+        <v>1279.274829674832</v>
       </c>
     </row>
     <row r="366">
@@ -39830,7 +39830,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="8" t="n">
-        <v>1754.531151510127</v>
+        <v>1340.849571067207</v>
       </c>
     </row>
     <row r="367">
@@ -39838,7 +39838,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="8" t="n">
-        <v>1473.422928038832</v>
+        <v>1646.914817763928</v>
       </c>
     </row>
     <row r="368">
@@ -39846,7 +39846,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="8" t="n">
-        <v>1780.026160600588</v>
+        <v>1604.150846485317</v>
       </c>
     </row>
     <row r="369">
@@ -39854,7 +39854,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="8" t="n">
-        <v>1541.81852507352</v>
+        <v>1325.148574128074</v>
       </c>
     </row>
     <row r="370">
@@ -39862,7 +39862,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="8" t="n">
-        <v>1599.567791806155</v>
+        <v>1374.301844958534</v>
       </c>
     </row>
     <row r="371">
@@ -39870,7 +39870,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="8" t="n">
-        <v>1764.034167940477</v>
+        <v>1884.886132728297</v>
       </c>
     </row>
     <row r="372">
@@ -39878,7 +39878,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="8" t="n">
-        <v>1564.430030050973</v>
+        <v>1863.280179822065</v>
       </c>
     </row>
     <row r="373">
@@ -39886,7 +39886,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="8" t="n">
-        <v>1526.759954509278</v>
+        <v>1384.539982791788</v>
       </c>
     </row>
     <row r="374">
@@ -39894,7 +39894,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="8" t="n">
-        <v>1680.714674422458</v>
+        <v>1414.987569667249</v>
       </c>
     </row>
     <row r="375">
@@ -39902,7 +39902,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="8" t="n">
-        <v>1335.814138670602</v>
+        <v>1762.683976811134</v>
       </c>
     </row>
     <row r="376">
@@ -39910,7 +39910,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="8" t="n">
-        <v>1615.034494538335</v>
+        <v>1479.908380456989</v>
       </c>
     </row>
     <row r="377">
@@ -39918,7 +39918,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="8" t="n">
-        <v>1406.78459386826</v>
+        <v>1497.328680096877</v>
       </c>
     </row>
     <row r="378">
@@ -39926,7 +39926,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="8" t="n">
-        <v>1347.00523638525</v>
+        <v>1771.583836168994</v>
       </c>
     </row>
     <row r="379">
@@ -39934,7 +39934,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="8" t="n">
-        <v>1791.509893673326</v>
+        <v>1417.342948663996</v>
       </c>
     </row>
     <row r="380">
@@ -39942,7 +39942,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="8" t="n">
-        <v>1575.399597224322</v>
+        <v>1644.200067260771</v>
       </c>
     </row>
     <row r="381">
@@ -39950,7 +39950,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="8" t="n">
-        <v>1733.105535560958</v>
+        <v>1883.839534931685</v>
       </c>
     </row>
     <row r="382">
@@ -39958,7 +39958,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="8" t="n">
-        <v>1607.14949441865</v>
+        <v>1531.964772993014</v>
       </c>
     </row>
     <row r="383">
@@ -39966,7 +39966,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="8" t="n">
-        <v>1600.831248206139</v>
+        <v>1370.467858283905</v>
       </c>
     </row>
     <row r="384">
@@ -39974,7 +39974,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="8" t="n">
-        <v>1845.536458070068</v>
+        <v>1734.939561191272</v>
       </c>
     </row>
     <row r="385">
@@ -39982,7 +39982,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="8" t="n">
-        <v>1781.463316286211</v>
+        <v>1338.405594571289</v>
       </c>
     </row>
     <row r="386">
@@ -39990,7 +39990,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="8" t="n">
-        <v>1684.080535513708</v>
+        <v>1468.204530730254</v>
       </c>
     </row>
     <row r="387">
@@ -39998,7 +39998,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="8" t="n">
-        <v>1574.886067299164</v>
+        <v>1696.804724306185</v>
       </c>
     </row>
     <row r="388">
@@ -40006,7 +40006,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="8" t="n">
-        <v>1738.680799971248</v>
+        <v>1482.512177865924</v>
       </c>
     </row>
     <row r="389">
@@ -40014,7 +40014,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="8" t="n">
-        <v>1512.810347814813</v>
+        <v>1458.360628099998</v>
       </c>
     </row>
     <row r="390">
@@ -40022,7 +40022,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="8" t="n">
-        <v>1751.429716537381</v>
+        <v>1523.426214431877</v>
       </c>
     </row>
     <row r="391">
@@ -40030,7 +40030,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="8" t="n">
-        <v>1802.055622109356</v>
+        <v>1802.80129027216</v>
       </c>
     </row>
     <row r="392">
@@ -40038,7 +40038,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="8" t="n">
-        <v>1614.614517421459</v>
+        <v>1266.34294391132</v>
       </c>
     </row>
     <row r="393">
@@ -40046,7 +40046,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="8" t="n">
-        <v>1456.39051000128</v>
+        <v>1449.913394375293</v>
       </c>
     </row>
     <row r="394">
@@ -40054,7 +40054,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="8" t="n">
-        <v>1372.395217938826</v>
+        <v>1477.795724875314</v>
       </c>
     </row>
     <row r="395">
@@ -40062,7 +40062,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="8" t="n">
-        <v>1459.942606304566</v>
+        <v>1400.934451889709</v>
       </c>
     </row>
     <row r="396">
@@ -40070,7 +40070,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="8" t="n">
-        <v>1691.382716519986</v>
+        <v>1638.294759080024</v>
       </c>
     </row>
     <row r="397">
@@ -40078,7 +40078,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="8" t="n">
-        <v>1650.348676646594</v>
+        <v>1705.615006102277</v>
       </c>
     </row>
     <row r="398">
@@ -40086,7 +40086,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="8" t="n">
-        <v>1386.52077964926</v>
+        <v>1726.743851121084</v>
       </c>
     </row>
     <row r="399">
@@ -40094,7 +40094,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="8" t="n">
-        <v>1877.130314167417</v>
+        <v>1810.059769869454</v>
       </c>
     </row>
     <row r="400">
@@ -40102,7 +40102,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="8" t="n">
-        <v>1371.666381349467</v>
+        <v>1413.173068911178</v>
       </c>
     </row>
     <row r="401">
@@ -40110,7 +40110,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="8" t="n">
-        <v>1800.761099516443</v>
+        <v>1682.872578314135</v>
       </c>
     </row>
     <row r="402">
@@ -40118,7 +40118,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="8" t="n">
-        <v>1375.955445360056</v>
+        <v>1614.951018571297</v>
       </c>
     </row>
     <row r="403">
@@ -40126,7 +40126,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="8" t="n">
-        <v>1698.863732658551</v>
+        <v>1583.457951099487</v>
       </c>
     </row>
     <row r="404">
@@ -40134,7 +40134,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="8" t="n">
-        <v>1849.607730464227</v>
+        <v>1530.931349241874</v>
       </c>
     </row>
     <row r="405">
@@ -40142,7 +40142,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="8" t="n">
-        <v>1732.488849528913</v>
+        <v>1407.119140311517</v>
       </c>
     </row>
     <row r="406">
@@ -40150,7 +40150,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="8" t="n">
-        <v>1679.975793635187</v>
+        <v>1451.67234174782</v>
       </c>
     </row>
     <row r="407">
@@ -40158,7 +40158,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="8" t="n">
-        <v>1613.411566648976</v>
+        <v>1783.200456449433</v>
       </c>
     </row>
     <row r="408">
@@ -40166,7 +40166,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="8" t="n">
-        <v>1605.912932583117</v>
+        <v>1546.503715740766</v>
       </c>
     </row>
     <row r="409">
@@ -40174,7 +40174,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="8" t="n">
-        <v>1665.077640095096</v>
+        <v>1648.190413910272</v>
       </c>
     </row>
     <row r="410">
@@ -40182,7 +40182,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="8" t="n">
-        <v>1501.317446185459</v>
+        <v>1445.527489204001</v>
       </c>
     </row>
     <row r="411">
@@ -40190,7 +40190,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="8" t="n">
-        <v>1517.671603880928</v>
+        <v>1736.987938809714</v>
       </c>
     </row>
     <row r="412">
@@ -40198,7 +40198,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="8" t="n">
-        <v>1697.725683086401</v>
+        <v>1443.947684530113</v>
       </c>
     </row>
     <row r="413">
@@ -40206,7 +40206,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="8" t="n">
-        <v>1585.467618807805</v>
+        <v>1658.172842183608</v>
       </c>
     </row>
     <row r="414">
@@ -40214,7 +40214,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="8" t="n">
-        <v>1606.531600818972</v>
+        <v>1619.984616911676</v>
       </c>
     </row>
     <row r="415">
@@ -40222,7 +40222,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="8" t="n">
-        <v>1775.230177513307</v>
+        <v>1523.746501970181</v>
       </c>
     </row>
     <row r="416">
@@ -40230,7 +40230,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="8" t="n">
-        <v>1351.340772880879</v>
+        <v>1433.071068836527</v>
       </c>
     </row>
     <row r="417">
@@ -40238,7 +40238,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="8" t="n">
-        <v>1872.578565991559</v>
+        <v>1464.51186012587</v>
       </c>
     </row>
     <row r="418">
@@ -40246,7 +40246,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="8" t="n">
-        <v>1401.264645899548</v>
+        <v>1333.440109094392</v>
       </c>
     </row>
     <row r="419">
@@ -40254,7 +40254,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="8" t="n">
-        <v>1794.824275989875</v>
+        <v>1426.385273377926</v>
       </c>
     </row>
     <row r="420">
@@ -40262,7 +40262,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="8" t="n">
-        <v>1602.706834818858</v>
+        <v>1409.961427795327</v>
       </c>
     </row>
     <row r="421">
@@ -40270,7 +40270,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="8" t="n">
-        <v>1328.428972285722</v>
+        <v>1504.391297169644</v>
       </c>
     </row>
     <row r="422">
@@ -40278,7 +40278,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="8" t="n">
-        <v>1729.127394188355</v>
+        <v>1376.018499017171</v>
       </c>
     </row>
     <row r="423">
@@ -40286,7 +40286,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="8" t="n">
-        <v>1326.175339080663</v>
+        <v>1443.865861231031</v>
       </c>
     </row>
     <row r="424">
@@ -40294,7 +40294,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="8" t="n">
-        <v>1424.206322207668</v>
+        <v>1573.486384343016</v>
       </c>
     </row>
     <row r="425">
@@ -40302,7 +40302,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="8" t="n">
-        <v>1617.651435461998</v>
+        <v>1630.98512189584</v>
       </c>
     </row>
     <row r="426">
@@ -40310,7 +40310,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="8" t="n">
-        <v>1368.944681875983</v>
+        <v>1603.842644963085</v>
       </c>
     </row>
     <row r="427">
@@ -40318,7 +40318,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="8" t="n">
-        <v>1713.551648700565</v>
+        <v>1740.080887407622</v>
       </c>
     </row>
     <row r="428">
@@ -40326,7 +40326,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="8" t="n">
-        <v>1623.352769906566</v>
+        <v>1472.34710799587</v>
       </c>
     </row>
     <row r="429">
@@ -40334,7 +40334,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="8" t="n">
-        <v>1429.460943097608</v>
+        <v>1735.634807569759</v>
       </c>
     </row>
     <row r="430">
@@ -40342,7 +40342,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="8" t="n">
-        <v>1485.254649992577</v>
+        <v>1663.070571220977</v>
       </c>
     </row>
     <row r="431">
@@ -40350,7 +40350,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="8" t="n">
-        <v>1404.313007506612</v>
+        <v>1464.844230165304</v>
       </c>
     </row>
     <row r="432">
@@ -40358,7 +40358,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="8" t="n">
-        <v>1477.323589669733</v>
+        <v>1699.020766874025</v>
       </c>
     </row>
     <row r="433">
@@ -40366,7 +40366,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="8" t="n">
-        <v>1893.948883133654</v>
+        <v>1328.518890213113</v>
       </c>
     </row>
     <row r="434">
@@ -40374,7 +40374,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="8" t="n">
-        <v>1718.70758250676</v>
+        <v>1649.886473520683</v>
       </c>
     </row>
     <row r="435">
@@ -40382,7 +40382,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="8" t="n">
-        <v>1558.157749658325</v>
+        <v>1511.138166303608</v>
       </c>
     </row>
     <row r="436">
@@ -40390,7 +40390,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="8" t="n">
-        <v>1417.991070352025</v>
+        <v>1376.888599372116</v>
       </c>
     </row>
     <row r="437">
@@ -40398,7 +40398,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="8" t="n">
-        <v>1738.120438758189</v>
+        <v>1430.723509581539</v>
       </c>
     </row>
     <row r="438">
@@ -40406,7 +40406,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="8" t="n">
-        <v>1396.058263333151</v>
+        <v>1763.943556288546</v>
       </c>
     </row>
     <row r="439">
@@ -40414,7 +40414,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="8" t="n">
-        <v>1525.507702779357</v>
+        <v>1760.746873138769</v>
       </c>
     </row>
     <row r="440">
@@ -40422,7 +40422,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="8" t="n">
-        <v>1689.290318781463</v>
+        <v>1422.263252710715</v>
       </c>
     </row>
     <row r="441">
@@ -40430,7 +40430,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="8" t="n">
-        <v>1580.396505430008</v>
+        <v>1735.491242551874</v>
       </c>
     </row>
     <row r="442">
@@ -40438,7 +40438,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="8" t="n">
-        <v>1728.154147324908</v>
+        <v>1398.926541714124</v>
       </c>
     </row>
     <row r="443">
@@ -40446,7 +40446,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="8" t="n">
-        <v>1848.099677598139</v>
+        <v>1825.750646060818</v>
       </c>
     </row>
     <row r="444">
@@ -40454,7 +40454,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="8" t="n">
-        <v>1836.72719280563</v>
+        <v>1782.439670777273</v>
       </c>
     </row>
     <row r="445">
@@ -40462,7 +40462,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="8" t="n">
-        <v>1425.773441976175</v>
+        <v>1318.990391568337</v>
       </c>
     </row>
     <row r="446">
@@ -40470,7 +40470,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="8" t="n">
-        <v>1628.866300491966</v>
+        <v>1696.132726788846</v>
       </c>
     </row>
     <row r="447">
@@ -40478,7 +40478,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="8" t="n">
-        <v>1634.861452649011</v>
+        <v>1726.050235605289</v>
       </c>
     </row>
     <row r="448">
@@ -40486,7 +40486,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="8" t="n">
-        <v>1505.632091538617</v>
+        <v>1682.043325700633</v>
       </c>
     </row>
     <row r="449">
@@ -40494,7 +40494,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="8" t="n">
-        <v>1762.938411771401</v>
+        <v>1720.543701687664</v>
       </c>
     </row>
     <row r="450">
@@ -40502,7 +40502,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="8" t="n">
-        <v>1792.135481063035</v>
+        <v>1849.540801816961</v>
       </c>
     </row>
     <row r="451">
@@ -40510,7 +40510,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="8" t="n">
-        <v>1585.855430488075</v>
+        <v>1784.293225128069</v>
       </c>
     </row>
     <row r="452">
@@ -40518,7 +40518,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="8" t="n">
-        <v>1778.985921830434</v>
+        <v>1683.737354814089</v>
       </c>
     </row>
     <row r="453">
@@ -40526,7 +40526,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="8" t="n">
-        <v>1741.266748659049</v>
+        <v>1666.719731004269</v>
       </c>
     </row>
     <row r="454">
@@ -40534,7 +40534,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="8" t="n">
-        <v>1552.9389530122</v>
+        <v>1788.492006844649</v>
       </c>
     </row>
     <row r="455">
@@ -40542,7 +40542,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="8" t="n">
-        <v>1824.862427303347</v>
+        <v>1424.120995059837</v>
       </c>
     </row>
     <row r="456">
@@ -40550,7 +40550,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="8" t="n">
-        <v>1685.477514313252</v>
+        <v>1454.658026998865</v>
       </c>
     </row>
     <row r="457">
@@ -40558,7 +40558,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="8" t="n">
-        <v>1662.842643960853</v>
+        <v>1761.369047196381</v>
       </c>
     </row>
     <row r="458">
@@ -40566,7 +40566,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="8" t="n">
-        <v>1831.74267022392</v>
+        <v>1396.724034017649</v>
       </c>
     </row>
     <row r="459">
@@ -40574,7 +40574,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="8" t="n">
-        <v>1365.604238983561</v>
+        <v>1797.598123374308</v>
       </c>
     </row>
     <row r="460">
@@ -40582,7 +40582,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="8" t="n">
-        <v>1618.435000016824</v>
+        <v>1652.429606983475</v>
       </c>
     </row>
     <row r="461">
@@ -40590,7 +40590,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="8" t="n">
-        <v>1729.605477352341</v>
+        <v>1780.736279057144</v>
       </c>
     </row>
     <row r="462">
@@ -40598,7 +40598,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="8" t="n">
-        <v>1412.405032172192</v>
+        <v>1428.902236199632</v>
       </c>
     </row>
     <row r="463">
@@ -40606,7 +40606,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="8" t="n">
-        <v>1507.718421317927</v>
+        <v>1418.660802373787</v>
       </c>
     </row>
     <row r="464">
@@ -40614,7 +40614,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="8" t="n">
-        <v>1480.741958213327</v>
+        <v>1799.62838212827</v>
       </c>
     </row>
     <row r="465">
@@ -40622,7 +40622,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="8" t="n">
-        <v>1636.691858295738</v>
+        <v>1624.51295723484</v>
       </c>
     </row>
     <row r="466">
@@ -40630,7 +40630,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="8" t="n">
-        <v>1536.216693793704</v>
+        <v>1664.025531515402</v>
       </c>
     </row>
     <row r="467">
@@ -40638,7 +40638,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="8" t="n">
-        <v>1402.434618157115</v>
+        <v>1709.643651069446</v>
       </c>
     </row>
     <row r="468">
@@ -40646,7 +40646,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="8" t="n">
-        <v>1402.138144148352</v>
+        <v>1678.118226164055</v>
       </c>
     </row>
     <row r="469">
@@ -40654,7 +40654,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="8" t="n">
-        <v>1436.866118433741</v>
+        <v>1555.470477473119</v>
       </c>
     </row>
     <row r="470">
@@ -40662,7 +40662,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="8" t="n">
-        <v>1473.232388407304</v>
+        <v>1449.96312057846</v>
       </c>
     </row>
     <row r="471">
@@ -40670,7 +40670,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="8" t="n">
-        <v>1393.449871648743</v>
+        <v>1823.730756616408</v>
       </c>
     </row>
     <row r="472">
@@ -40678,7 +40678,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="8" t="n">
-        <v>1865.798254384068</v>
+        <v>1377.341874633379</v>
       </c>
     </row>
     <row r="473">
@@ -40686,7 +40686,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="8" t="n">
-        <v>1761.286797887985</v>
+        <v>1581.755252012306</v>
       </c>
     </row>
     <row r="474">
@@ -40694,7 +40694,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="8" t="n">
-        <v>1313.585033021948</v>
+        <v>1638.303532422695</v>
       </c>
     </row>
     <row r="475">
@@ -40702,7 +40702,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="8" t="n">
-        <v>1683.76422830474</v>
+        <v>1454.410673092441</v>
       </c>
     </row>
     <row r="476">
@@ -40710,7 +40710,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="8" t="n">
-        <v>1455.079895224904</v>
+        <v>1770.697200637552</v>
       </c>
     </row>
     <row r="477">
@@ -40718,7 +40718,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="8" t="n">
-        <v>1777.69217710841</v>
+        <v>1633.240020287844</v>
       </c>
     </row>
     <row r="478">
@@ -40726,7 +40726,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="8" t="n">
-        <v>1507.256963268556</v>
+        <v>1557.076111500125</v>
       </c>
     </row>
     <row r="479">
@@ -40734,7 +40734,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="8" t="n">
-        <v>1516.13576084183</v>
+        <v>1826.538016164745</v>
       </c>
     </row>
     <row r="480">
@@ -40742,7 +40742,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="8" t="n">
-        <v>1623.335472295044</v>
+        <v>1829.77242752391</v>
       </c>
     </row>
     <row r="481">
@@ -40750,7 +40750,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="8" t="n">
-        <v>1683.301970779301</v>
+        <v>1729.861917796648</v>
       </c>
     </row>
     <row r="482">
@@ -40758,7 +40758,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="8" t="n">
-        <v>1578.25129686324</v>
+        <v>1843.635340601826</v>
       </c>
     </row>
     <row r="483">
@@ -40766,7 +40766,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="8" t="n">
-        <v>1427.242036614725</v>
+        <v>1416.999539873562</v>
       </c>
     </row>
     <row r="484">
@@ -40774,7 +40774,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="8" t="n">
-        <v>1689.283821634065</v>
+        <v>1799.20667099999</v>
       </c>
     </row>
     <row r="485">
@@ -40782,7 +40782,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="8" t="n">
-        <v>1341.275997565496</v>
+        <v>1600.536572053606</v>
       </c>
     </row>
     <row r="486">
@@ -40790,7 +40790,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="8" t="n">
-        <v>1368.1051144364</v>
+        <v>1448.298015086171</v>
       </c>
     </row>
     <row r="487">
@@ -40798,7 +40798,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="8" t="n">
-        <v>1404.308072429532</v>
+        <v>1760.165534278203</v>
       </c>
     </row>
     <row r="488">
@@ -40806,7 +40806,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="8" t="n">
-        <v>1509.407572008236</v>
+        <v>1429.594776964152</v>
       </c>
     </row>
     <row r="489">
@@ -40814,7 +40814,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="8" t="n">
-        <v>1383.49084198137</v>
+        <v>1456.476819753685</v>
       </c>
     </row>
     <row r="490">
@@ -40822,7 +40822,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="8" t="n">
-        <v>1749.229667253244</v>
+        <v>1557.631815018085</v>
       </c>
     </row>
     <row r="491">
@@ -40830,7 +40830,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="8" t="n">
-        <v>1418.749910669279</v>
+        <v>1497.615555523944</v>
       </c>
     </row>
     <row r="492">
@@ -40838,7 +40838,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="8" t="n">
-        <v>1707.977058970866</v>
+        <v>1362.217016654924</v>
       </c>
     </row>
     <row r="493">
@@ -40846,7 +40846,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="8" t="n">
-        <v>1297.086632905247</v>
+        <v>1764.855026589405</v>
       </c>
     </row>
     <row r="494">
@@ -40854,7 +40854,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="8" t="n">
-        <v>1538.333832258293</v>
+        <v>1822.113967711394</v>
       </c>
     </row>
     <row r="495">
@@ -40862,7 +40862,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="8" t="n">
-        <v>1814.807494881137</v>
+        <v>1527.48612766286</v>
       </c>
     </row>
     <row r="496">
@@ -40870,7 +40870,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="8" t="n">
-        <v>1689.672317037664</v>
+        <v>1502.492357588927</v>
       </c>
     </row>
     <row r="497">
@@ -40878,7 +40878,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="8" t="n">
-        <v>1417.845089554923</v>
+        <v>1282.59122723552</v>
       </c>
     </row>
     <row r="498">
@@ -40886,7 +40886,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="8" t="n">
-        <v>1625.755305237923</v>
+        <v>1513.743706659628</v>
       </c>
     </row>
     <row r="499">
@@ -40894,7 +40894,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="8" t="n">
-        <v>1621.743805204084</v>
+        <v>1426.879405637607</v>
       </c>
     </row>
     <row r="500">
@@ -40902,7 +40902,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="8" t="n">
-        <v>1412.227840866289</v>
+        <v>1403.728319761869</v>
       </c>
     </row>
     <row r="501">
@@ -40910,7 +40910,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="8" t="n">
-        <v>1620.338752604578</v>
+        <v>1424.42282034207</v>
       </c>
     </row>
     <row r="502">
@@ -40918,7 +40918,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="8" t="n">
-        <v>1720.098287559327</v>
+        <v>1726.672597910871</v>
       </c>
     </row>
     <row r="503">
@@ -40926,7 +40926,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="8" t="n">
-        <v>1785.018404220227</v>
+        <v>1305.016844254931</v>
       </c>
     </row>
     <row r="504">
@@ -40934,7 +40934,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="8" t="n">
-        <v>1488.733287496347</v>
+        <v>1711.103517368231</v>
       </c>
     </row>
     <row r="505">
@@ -40942,7 +40942,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="8" t="n">
-        <v>1613.873512704984</v>
+        <v>1547.802999031323</v>
       </c>
     </row>
     <row r="506">
@@ -40950,7 +40950,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="8" t="n">
-        <v>1864.882141243964</v>
+        <v>1365.093121510927</v>
       </c>
     </row>
     <row r="507">
@@ -40958,7 +40958,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="8" t="n">
-        <v>1567.692778811503</v>
+        <v>1629.17978037199</v>
       </c>
     </row>
     <row r="508">
@@ -40966,7 +40966,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="8" t="n">
-        <v>1741.350737449342</v>
+        <v>1342.967079868026</v>
       </c>
     </row>
     <row r="509">
@@ -40974,7 +40974,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="8" t="n">
-        <v>1843.327653350013</v>
+        <v>1767.846792508893</v>
       </c>
     </row>
     <row r="510">
@@ -40982,7 +40982,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="8" t="n">
-        <v>1717.021283046841</v>
+        <v>1730.155179394367</v>
       </c>
     </row>
     <row r="511">
@@ -40990,7 +40990,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="8" t="n">
-        <v>1715.099366884272</v>
+        <v>1747.58348259442</v>
       </c>
     </row>
     <row r="512">
@@ -40998,7 +40998,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="8" t="n">
-        <v>1293.429160025177</v>
+        <v>1502.740680175279</v>
       </c>
     </row>
     <row r="513">
@@ -41006,7 +41006,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="8" t="n">
-        <v>1537.924111067252</v>
+        <v>1775.795567863089</v>
       </c>
     </row>
     <row r="514">
@@ -41014,7 +41014,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="8" t="n">
-        <v>1536.512505089479</v>
+        <v>1744.223633231173</v>
       </c>
     </row>
     <row r="515">
@@ -41022,7 +41022,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="8" t="n">
-        <v>1804.506188553719</v>
+        <v>1610.233372745666</v>
       </c>
     </row>
     <row r="516">
@@ -41030,7 +41030,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="8" t="n">
-        <v>1743.996182953337</v>
+        <v>1474.61514073061</v>
       </c>
     </row>
     <row r="517">
@@ -41038,7 +41038,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="8" t="n">
-        <v>1616.244152472183</v>
+        <v>1377.477902933739</v>
       </c>
     </row>
     <row r="518">
@@ -41046,7 +41046,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="8" t="n">
-        <v>1304.134470820795</v>
+        <v>1759.02963333089</v>
       </c>
     </row>
     <row r="519">
@@ -41054,7 +41054,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="8" t="n">
-        <v>1459.654512298516</v>
+        <v>1670.117768899208</v>
       </c>
     </row>
     <row r="520">
@@ -41062,7 +41062,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="8" t="n">
-        <v>1733.719627464117</v>
+        <v>1663.530101743399</v>
       </c>
     </row>
     <row r="521">
@@ -41070,7 +41070,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="8" t="n">
-        <v>1502.775868980996</v>
+        <v>1796.083334798252</v>
       </c>
     </row>
     <row r="522">
@@ -41078,7 +41078,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="8" t="n">
-        <v>1536.85327147566</v>
+        <v>1293.686068934793</v>
       </c>
     </row>
     <row r="523">
@@ -41086,7 +41086,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="8" t="n">
-        <v>1370.671521440506</v>
+        <v>1538.697403526236</v>
       </c>
     </row>
     <row r="524">
@@ -41094,7 +41094,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="8" t="n">
-        <v>1341.522178693576</v>
+        <v>1754.850585272048</v>
       </c>
     </row>
     <row r="525">
@@ -41102,7 +41102,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="8" t="n">
-        <v>1629.959287755265</v>
+        <v>1667.291717527878</v>
       </c>
     </row>
     <row r="526">
@@ -41110,7 +41110,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="8" t="n">
-        <v>1687.883436442799</v>
+        <v>1812.047916094482</v>
       </c>
     </row>
     <row r="527">
@@ -41118,7 +41118,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="8" t="n">
-        <v>1466.387910587123</v>
+        <v>1783.896096511832</v>
       </c>
     </row>
     <row r="528">
@@ -41126,7 +41126,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="8" t="n">
-        <v>1529.224710093804</v>
+        <v>1676.903987105029</v>
       </c>
     </row>
     <row r="529">
@@ -41134,7 +41134,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="8" t="n">
-        <v>1704.167886187047</v>
+        <v>1683.422270326339</v>
       </c>
     </row>
     <row r="530">
@@ -41142,7 +41142,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="8" t="n">
-        <v>1647.292823560378</v>
+        <v>1818.882148429453</v>
       </c>
     </row>
     <row r="531">
@@ -41150,7 +41150,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="8" t="n">
-        <v>1434.772827367489</v>
+        <v>1338.942549491614</v>
       </c>
     </row>
     <row r="532">
@@ -41158,7 +41158,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="8" t="n">
-        <v>1440.911058805311</v>
+        <v>1667.458007039686</v>
       </c>
     </row>
     <row r="533">
@@ -41166,7 +41166,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="8" t="n">
-        <v>1500.442462819263</v>
+        <v>1779.41987898916</v>
       </c>
     </row>
     <row r="534">
@@ -41174,7 +41174,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="8" t="n">
-        <v>1542.114447176231</v>
+        <v>1589.891808072118</v>
       </c>
     </row>
     <row r="535">
@@ -41182,7 +41182,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="8" t="n">
-        <v>1738.476183198425</v>
+        <v>1295.572059225248</v>
       </c>
     </row>
     <row r="536">
@@ -41190,7 +41190,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="8" t="n">
-        <v>1678.060457537178</v>
+        <v>1450.603432280709</v>
       </c>
     </row>
     <row r="537">
@@ -41198,7 +41198,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="8" t="n">
-        <v>1344.152043726177</v>
+        <v>1587.59762414665</v>
       </c>
     </row>
     <row r="538">
@@ -41206,7 +41206,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="8" t="n">
-        <v>1521.783046272865</v>
+        <v>1532.662320697211</v>
       </c>
     </row>
     <row r="539">
@@ -41214,7 +41214,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="8" t="n">
-        <v>1532.888426385602</v>
+        <v>1546.543067264402</v>
       </c>
     </row>
     <row r="540">
@@ -41222,7 +41222,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="8" t="n">
-        <v>1583.011784127977</v>
+        <v>1629.821071341114</v>
       </c>
     </row>
     <row r="541">
@@ -41230,7 +41230,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="8" t="n">
-        <v>1326.653114977806</v>
+        <v>1416.833435461675</v>
       </c>
     </row>
     <row r="542">
@@ -41238,7 +41238,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="8" t="n">
-        <v>1798.655557173494</v>
+        <v>1485.406424769226</v>
       </c>
     </row>
     <row r="543">
@@ -41246,7 +41246,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="8" t="n">
-        <v>1654.773826826126</v>
+        <v>1461.532045143183</v>
       </c>
     </row>
     <row r="544">
@@ -41254,7 +41254,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="8" t="n">
-        <v>1480.887565995505</v>
+        <v>1540.541096476294</v>
       </c>
     </row>
     <row r="545">
@@ -41262,7 +41262,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="8" t="n">
-        <v>1372.408618952348</v>
+        <v>1805.06688480228</v>
       </c>
     </row>
     <row r="546">
@@ -41270,7 +41270,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="8" t="n">
-        <v>1406.618406103837</v>
+        <v>1682.280270769622</v>
       </c>
     </row>
     <row r="547">
@@ -41278,7 +41278,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="8" t="n">
-        <v>1800.77666752704</v>
+        <v>1433.404136095784</v>
       </c>
     </row>
     <row r="548">
@@ -41286,7 +41286,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="8" t="n">
-        <v>1770.15020575318</v>
+        <v>1375.005226592308</v>
       </c>
     </row>
     <row r="549">
@@ -41294,7 +41294,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="8" t="n">
-        <v>1772.956749571739</v>
+        <v>1828.456983097238</v>
       </c>
     </row>
     <row r="550">
@@ -41302,7 +41302,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="8" t="n">
-        <v>1711.147522497822</v>
+        <v>1763.351094174976</v>
       </c>
     </row>
     <row r="551">
@@ -41310,7 +41310,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="8" t="n">
-        <v>1474.357136861514</v>
+        <v>1655.987417206816</v>
       </c>
     </row>
     <row r="552">
@@ -41318,7 +41318,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="8" t="n">
-        <v>1705.153157882199</v>
+        <v>1461.386970307811</v>
       </c>
     </row>
     <row r="553">
@@ -41326,7 +41326,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="8" t="n">
-        <v>1398.70604608331</v>
+        <v>1309.867658160546</v>
       </c>
     </row>
     <row r="554">
@@ -41334,7 +41334,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="8" t="n">
-        <v>1611.685035974043</v>
+        <v>1418.059383063436</v>
       </c>
     </row>
     <row r="555">
@@ -41342,7 +41342,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="8" t="n">
-        <v>1630.383353862914</v>
+        <v>1402.5832807629</v>
       </c>
     </row>
     <row r="556">
@@ -41350,7 +41350,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="8" t="n">
-        <v>1373.51465496317</v>
+        <v>1438.863299808099</v>
       </c>
     </row>
     <row r="557">
@@ -41358,7 +41358,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="8" t="n">
-        <v>1799.216275002745</v>
+        <v>1719.020713490113</v>
       </c>
     </row>
     <row r="558">
@@ -41366,7 +41366,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="8" t="n">
-        <v>1396.38456063586</v>
+        <v>1512.188461122342</v>
       </c>
     </row>
     <row r="559">
@@ -41374,7 +41374,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="8" t="n">
-        <v>1376.587629059311</v>
+        <v>1540.109100599581</v>
       </c>
     </row>
     <row r="560">
@@ -41382,7 +41382,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="8" t="n">
-        <v>1762.947418433439</v>
+        <v>1474.899150447852</v>
       </c>
     </row>
     <row r="561">
@@ -41390,7 +41390,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="8" t="n">
-        <v>1802.117502366274</v>
+        <v>1645.945793538643</v>
       </c>
     </row>
     <row r="562">
@@ -41398,7 +41398,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="8" t="n">
-        <v>1627.483574983478</v>
+        <v>1787.051254946527</v>
       </c>
     </row>
     <row r="563">
@@ -41406,7 +41406,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="8" t="n">
-        <v>1399.397468773913</v>
+        <v>1389.683041983182</v>
       </c>
     </row>
     <row r="564">
@@ -41414,7 +41414,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="8" t="n">
-        <v>1429.203822119443</v>
+        <v>1431.40553931207</v>
       </c>
     </row>
     <row r="565">
@@ -41422,7 +41422,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="8" t="n">
-        <v>1746.333997465041</v>
+        <v>1439.365205170143</v>
       </c>
     </row>
     <row r="566">
@@ -41430,7 +41430,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="8" t="n">
-        <v>1423.34535725306</v>
+        <v>1620.661712471218</v>
       </c>
     </row>
     <row r="567">
@@ -41438,7 +41438,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="8" t="n">
-        <v>1480.97071731003</v>
+        <v>1581.527280203635</v>
       </c>
     </row>
     <row r="568">
@@ -41446,7 +41446,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="8" t="n">
-        <v>1759.375339845417</v>
+        <v>1612.296925259148</v>
       </c>
     </row>
     <row r="569">
@@ -41454,7 +41454,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="8" t="n">
-        <v>1487.565933582636</v>
+        <v>1785.799695579899</v>
       </c>
     </row>
     <row r="570">
@@ -41462,7 +41462,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="8" t="n">
-        <v>1815.443810936262</v>
+        <v>1502.042569104251</v>
       </c>
     </row>
     <row r="571">
@@ -41470,7 +41470,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="8" t="n">
-        <v>1819.086167353856</v>
+        <v>1693.989594202768</v>
       </c>
     </row>
     <row r="572">
@@ -41478,7 +41478,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="8" t="n">
-        <v>1767.889567751131</v>
+        <v>1796.586383476818</v>
       </c>
     </row>
     <row r="573">
@@ -41486,7 +41486,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="8" t="n">
-        <v>1388.04279318707</v>
+        <v>1478.678698270918</v>
       </c>
     </row>
     <row r="574">
@@ -41494,7 +41494,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="8" t="n">
-        <v>1464.585485244773</v>
+        <v>1376.404404567007</v>
       </c>
     </row>
     <row r="575">
@@ -41502,7 +41502,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="8" t="n">
-        <v>1446.648726857075</v>
+        <v>1744.129119601274</v>
       </c>
     </row>
     <row r="576">
@@ -41510,7 +41510,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="8" t="n">
-        <v>1665.297904248765</v>
+        <v>1682.754651377868</v>
       </c>
     </row>
     <row r="577">
@@ -41518,7 +41518,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="8" t="n">
-        <v>1847.793821302001</v>
+        <v>1366.71776738473</v>
       </c>
     </row>
     <row r="578">
@@ -41526,7 +41526,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="8" t="n">
-        <v>1508.907235880154</v>
+        <v>1609.318295349223</v>
       </c>
     </row>
     <row r="579">
@@ -41534,7 +41534,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="8" t="n">
-        <v>1459.498554138434</v>
+        <v>1338.99289775272</v>
       </c>
     </row>
     <row r="580">
@@ -41542,7 +41542,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="8" t="n">
-        <v>1445.256376947937</v>
+        <v>1757.213589931643</v>
       </c>
     </row>
     <row r="581">
@@ -41550,7 +41550,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="8" t="n">
-        <v>1337.519521576774</v>
+        <v>1548.032030514061</v>
       </c>
     </row>
     <row r="582">
@@ -41558,7 +41558,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="8" t="n">
-        <v>1497.0312955057</v>
+        <v>1731.5609667363</v>
       </c>
     </row>
     <row r="583">
@@ -41566,7 +41566,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="8" t="n">
-        <v>1425.807714996377</v>
+        <v>1727.676565060652</v>
       </c>
     </row>
     <row r="584">
@@ -41574,7 +41574,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="8" t="n">
-        <v>1730.150908114827</v>
+        <v>1751.104436694121</v>
       </c>
     </row>
     <row r="585">
@@ -41582,7 +41582,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="8" t="n">
-        <v>1680.91076490156</v>
+        <v>1589.805148547333</v>
       </c>
     </row>
     <row r="586">
@@ -41590,7 +41590,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="8" t="n">
-        <v>1512.621294064714</v>
+        <v>1802.416947376215</v>
       </c>
     </row>
     <row r="587">
@@ -41598,7 +41598,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="8" t="n">
-        <v>1633.97651724846</v>
+        <v>1585.179587846854</v>
       </c>
     </row>
     <row r="588">
@@ -41606,7 +41606,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="8" t="n">
-        <v>1417.070739786756</v>
+        <v>1458.360994198046</v>
       </c>
     </row>
     <row r="589">
@@ -41614,7 +41614,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="8" t="n">
-        <v>1858.452290927368</v>
+        <v>1594.655349928807</v>
       </c>
     </row>
     <row r="590">
@@ -41622,7 +41622,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="8" t="n">
-        <v>1531.592142069772</v>
+        <v>1444.491304869011</v>
       </c>
     </row>
     <row r="591">
@@ -41630,7 +41630,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="8" t="n">
-        <v>1483.635821948303</v>
+        <v>1683.429177540289</v>
       </c>
     </row>
     <row r="592">
@@ -41638,7 +41638,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="8" t="n">
-        <v>1493.579646586832</v>
+        <v>1427.12697337597</v>
       </c>
     </row>
     <row r="593">
@@ -41646,7 +41646,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="8" t="n">
-        <v>1387.532872185484</v>
+        <v>1836.499600864502</v>
       </c>
     </row>
     <row r="594">
@@ -41654,7 +41654,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="8" t="n">
-        <v>1662.035036201564</v>
+        <v>1485.118388379929</v>
       </c>
     </row>
     <row r="595">
@@ -41662,7 +41662,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="8" t="n">
-        <v>1766.838344099669</v>
+        <v>1878.403894371026</v>
       </c>
     </row>
     <row r="596">
@@ -41670,7 +41670,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="8" t="n">
-        <v>1548.145142763529</v>
+        <v>1600.729229865049</v>
       </c>
     </row>
     <row r="597">
@@ -41678,7 +41678,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="8" t="n">
-        <v>1311.543866267092</v>
+        <v>1620.304896858011</v>
       </c>
     </row>
     <row r="598">
@@ -41686,7 +41686,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="8" t="n">
-        <v>1813.094839008764</v>
+        <v>1778.879079270475</v>
       </c>
     </row>
     <row r="599">
@@ -41694,7 +41694,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="8" t="n">
-        <v>1366.432979042859</v>
+        <v>1641.372013659031</v>
       </c>
     </row>
     <row r="600">
@@ -41702,7 +41702,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="8" t="n">
-        <v>1617.932642524055</v>
+        <v>1681.668414663292</v>
       </c>
     </row>
     <row r="601">
@@ -41710,7 +41710,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="8" t="n">
-        <v>1684.940755653948</v>
+        <v>1331.057953056568</v>
       </c>
     </row>
     <row r="602">
@@ -41718,7 +41718,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="8" t="n">
-        <v>1549.821735720752</v>
+        <v>1741.4302882031</v>
       </c>
     </row>
     <row r="603">
@@ -41726,7 +41726,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="8" t="n">
-        <v>1616.996949164282</v>
+        <v>1794.799087416392</v>
       </c>
     </row>
     <row r="604">
@@ -41734,7 +41734,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="8" t="n">
-        <v>1865.771374645586</v>
+        <v>1798.306383714218</v>
       </c>
     </row>
     <row r="605">
@@ -41742,7 +41742,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="8" t="n">
-        <v>1578.856396849443</v>
+        <v>1324.306214130464</v>
       </c>
     </row>
     <row r="606">
@@ -41750,7 +41750,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="8" t="n">
-        <v>1421.639772449454</v>
+        <v>1826.445551706279</v>
       </c>
     </row>
     <row r="607">
@@ -41758,7 +41758,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="8" t="n">
-        <v>1643.951923751731</v>
+        <v>1405.409539565335</v>
       </c>
     </row>
     <row r="608">
@@ -41766,7 +41766,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="8" t="n">
-        <v>1478.03811663509</v>
+        <v>1666.219046273919</v>
       </c>
     </row>
     <row r="609">
@@ -41774,7 +41774,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="8" t="n">
-        <v>1487.121868277913</v>
+        <v>1486.078950205416</v>
       </c>
     </row>
     <row r="610">
@@ -41782,7 +41782,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="8" t="n">
-        <v>1506.310216188276</v>
+        <v>1816.779265524952</v>
       </c>
     </row>
     <row r="611">
@@ -41790,7 +41790,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="8" t="n">
-        <v>1466.629729702463</v>
+        <v>1517.235546973324</v>
       </c>
     </row>
     <row r="612">
@@ -41798,7 +41798,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="8" t="n">
-        <v>1794.094874813965</v>
+        <v>1414.113980613802</v>
       </c>
     </row>
     <row r="613">
@@ -41806,7 +41806,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="8" t="n">
-        <v>1425.514758864299</v>
+        <v>1321.24648013341</v>
       </c>
     </row>
     <row r="614">
@@ -41814,7 +41814,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="8" t="n">
-        <v>1318.699990834495</v>
+        <v>1635.167900964867</v>
       </c>
     </row>
     <row r="615">
@@ -41822,7 +41822,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="8" t="n">
-        <v>1420.583034562878</v>
+        <v>1481.063967333633</v>
       </c>
     </row>
     <row r="616">
@@ -41830,7 +41830,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="8" t="n">
-        <v>1848.70844173915</v>
+        <v>1377.909631068241</v>
       </c>
     </row>
     <row r="617">
@@ -41838,7 +41838,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="8" t="n">
-        <v>1304.346447788276</v>
+        <v>1382.935754556014</v>
       </c>
     </row>
     <row r="618">
@@ -41846,7 +41846,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="8" t="n">
-        <v>1378.904591421733</v>
+        <v>1346.01981933895</v>
       </c>
     </row>
     <row r="619">
@@ -41854,7 +41854,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="8" t="n">
-        <v>1562.03305548777</v>
+        <v>1702.980064030315</v>
       </c>
     </row>
     <row r="620">
@@ -41862,7 +41862,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="8" t="n">
-        <v>1389.792179320304</v>
+        <v>1444.812662054855</v>
       </c>
     </row>
     <row r="621">
@@ -41870,7 +41870,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="8" t="n">
-        <v>1801.284511310937</v>
+        <v>1614.959730645075</v>
       </c>
     </row>
     <row r="622">
@@ -41878,7 +41878,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="8" t="n">
-        <v>1725.113481708378</v>
+        <v>1383.321277684193</v>
       </c>
     </row>
     <row r="623">
@@ -41886,7 +41886,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="8" t="n">
-        <v>1752.28925062182</v>
+        <v>1784.798750261094</v>
       </c>
     </row>
     <row r="624">
@@ -41894,7 +41894,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="8" t="n">
-        <v>1448.084352820824</v>
+        <v>1657.896592088019</v>
       </c>
     </row>
     <row r="625">
@@ -41902,7 +41902,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="8" t="n">
-        <v>1659.469055893077</v>
+        <v>1364.704356374256</v>
       </c>
     </row>
     <row r="626">
@@ -41910,7 +41910,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="8" t="n">
-        <v>1383.258432308486</v>
+        <v>1782.344703409795</v>
       </c>
     </row>
     <row r="627">
@@ -41918,7 +41918,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="8" t="n">
-        <v>1783.932308369553</v>
+        <v>1807.245179279215</v>
       </c>
     </row>
     <row r="628">
@@ -41926,7 +41926,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="8" t="n">
-        <v>1491.617743173848</v>
+        <v>1754.469416134894</v>
       </c>
     </row>
     <row r="629">
@@ -41934,7 +41934,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="8" t="n">
-        <v>1437.517999956063</v>
+        <v>1489.853988046363</v>
       </c>
     </row>
     <row r="630">
@@ -41942,7 +41942,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="8" t="n">
-        <v>1830.143235177587</v>
+        <v>1634.132497772231</v>
       </c>
     </row>
     <row r="631">
@@ -41950,7 +41950,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="8" t="n">
-        <v>1894.091216823293</v>
+        <v>1626.828548877832</v>
       </c>
     </row>
     <row r="632">
@@ -41958,7 +41958,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="8" t="n">
-        <v>1494.868119253148</v>
+        <v>1595.266900051268</v>
       </c>
     </row>
     <row r="633">
@@ -41966,7 +41966,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="8" t="n">
-        <v>1503.543573163149</v>
+        <v>1412.303061096545</v>
       </c>
     </row>
     <row r="634">
@@ -41974,7 +41974,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="8" t="n">
-        <v>1360.969616741006</v>
+        <v>1642.109672711948</v>
       </c>
     </row>
     <row r="635">
@@ -41982,7 +41982,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="8" t="n">
-        <v>1436.184955955951</v>
+        <v>1417.084174621681</v>
       </c>
     </row>
     <row r="636">
@@ -41990,7 +41990,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="8" t="n">
-        <v>1656.042495294364</v>
+        <v>1832.969605007994</v>
       </c>
     </row>
     <row r="637">
@@ -41998,7 +41998,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="8" t="n">
-        <v>1393.266641517647</v>
+        <v>1318.838346208508</v>
       </c>
     </row>
     <row r="638">
@@ -42006,7 +42006,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="8" t="n">
-        <v>1440.845029293483</v>
+        <v>1558.001518523787</v>
       </c>
     </row>
     <row r="639">
@@ -42014,7 +42014,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="8" t="n">
-        <v>1688.312231394632</v>
+        <v>1593.616176710485</v>
       </c>
     </row>
     <row r="640">
@@ -42022,7 +42022,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="8" t="n">
-        <v>1451.457608682543</v>
+        <v>1707.922263848641</v>
       </c>
     </row>
     <row r="641">
@@ -42030,7 +42030,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="8" t="n">
-        <v>1350.335833985947</v>
+        <v>1595.98340115574</v>
       </c>
     </row>
     <row r="642">
@@ -42038,7 +42038,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="8" t="n">
-        <v>1424.246360730396</v>
+        <v>1610.055597237346</v>
       </c>
     </row>
     <row r="643">
@@ -42046,7 +42046,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="8" t="n">
-        <v>1370.559041659593</v>
+        <v>1783.65531200272</v>
       </c>
     </row>
     <row r="644">
@@ -42054,7 +42054,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="8" t="n">
-        <v>1749.725728409708</v>
+        <v>1842.436840701879</v>
       </c>
     </row>
     <row r="645">
@@ -42062,7 +42062,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="8" t="n">
-        <v>1780.432636289797</v>
+        <v>1836.914929538927</v>
       </c>
     </row>
     <row r="646">
@@ -42070,7 +42070,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="8" t="n">
-        <v>1842.986101880592</v>
+        <v>1506.818788843814</v>
       </c>
     </row>
     <row r="647">
@@ -42078,7 +42078,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="8" t="n">
-        <v>1370.559643693004</v>
+        <v>1682.396438036187</v>
       </c>
     </row>
     <row r="648">
@@ -42086,7 +42086,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="8" t="n">
-        <v>1631.117750589149</v>
+        <v>1559.754739919742</v>
       </c>
     </row>
     <row r="649">
@@ -42094,7 +42094,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="8" t="n">
-        <v>1373.040656768795</v>
+        <v>1703.130429539887</v>
       </c>
     </row>
     <row r="650">
@@ -42102,7 +42102,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="8" t="n">
-        <v>1418.767990817363</v>
+        <v>1830.720367205138</v>
       </c>
     </row>
     <row r="651">
@@ -42110,7 +42110,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="8" t="n">
-        <v>1288.469460283976</v>
+        <v>1563.382197203005</v>
       </c>
     </row>
     <row r="652">
@@ -42118,7 +42118,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="8" t="n">
-        <v>1430.209165518748</v>
+        <v>1829.252740986846</v>
       </c>
     </row>
     <row r="653">
@@ -42126,7 +42126,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="8" t="n">
-        <v>1610.061537298103</v>
+        <v>1774.069101663226</v>
       </c>
     </row>
     <row r="654">
@@ -42134,7 +42134,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="8" t="n">
-        <v>1576.429571323939</v>
+        <v>1374.836062057739</v>
       </c>
     </row>
     <row r="655">
@@ -42142,7 +42142,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="8" t="n">
-        <v>1400.056500644012</v>
+        <v>1745.83373222265</v>
       </c>
     </row>
     <row r="656">
@@ -42150,7 +42150,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="8" t="n">
-        <v>1714.866320227586</v>
+        <v>1635.134077677183</v>
       </c>
     </row>
     <row r="657">
@@ -42158,7 +42158,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="8" t="n">
-        <v>1527.926980712037</v>
+        <v>1792.680372141191</v>
       </c>
     </row>
     <row r="658">
@@ -42166,7 +42166,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="8" t="n">
-        <v>1448.093183284068</v>
+        <v>1407.692798576006</v>
       </c>
     </row>
     <row r="659">
@@ -42174,7 +42174,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="8" t="n">
-        <v>1841.051227357018</v>
+        <v>1517.331170598791</v>
       </c>
     </row>
     <row r="660">
@@ -42182,7 +42182,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="8" t="n">
-        <v>1791.737373485408</v>
+        <v>1661.92092244215</v>
       </c>
     </row>
     <row r="661">
@@ -42190,7 +42190,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="8" t="n">
-        <v>1793.03414728268</v>
+        <v>1506.041149708092</v>
       </c>
     </row>
     <row r="662">
@@ -42198,7 +42198,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="8" t="n">
-        <v>1389.037559461138</v>
+        <v>1614.719143580772</v>
       </c>
     </row>
     <row r="663">
@@ -42206,7 +42206,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="8" t="n">
-        <v>1363.998574218786</v>
+        <v>1853.347447906941</v>
       </c>
     </row>
     <row r="664">
@@ -42214,7 +42214,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="8" t="n">
-        <v>1593.152686273216</v>
+        <v>1325.529364108758</v>
       </c>
     </row>
     <row r="665">
@@ -42222,7 +42222,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="8" t="n">
-        <v>1565.900359640794</v>
+        <v>1344.713290682007</v>
       </c>
     </row>
     <row r="666">
@@ -42230,7 +42230,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="8" t="n">
-        <v>1669.310747131548</v>
+        <v>1610.319495757878</v>
       </c>
     </row>
     <row r="667">
@@ -42238,7 +42238,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="8" t="n">
-        <v>1600.348190936902</v>
+        <v>1822.752966878461</v>
       </c>
     </row>
     <row r="668">
@@ -42246,7 +42246,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="8" t="n">
-        <v>1723.164560452002</v>
+        <v>1497.358568358718</v>
       </c>
     </row>
     <row r="669">
@@ -42254,7 +42254,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="8" t="n">
-        <v>1368.870285359139</v>
+        <v>1610.470232806739</v>
       </c>
     </row>
     <row r="670">
@@ -42262,7 +42262,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="8" t="n">
-        <v>1332.846326516519</v>
+        <v>1348.68225668217</v>
       </c>
     </row>
     <row r="671">
@@ -42270,7 +42270,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="8" t="n">
-        <v>1399.963669668452</v>
+        <v>1604.593946704802</v>
       </c>
     </row>
     <row r="672">
@@ -42278,7 +42278,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="8" t="n">
-        <v>1807.293439781014</v>
+        <v>1339.708071429069</v>
       </c>
     </row>
     <row r="673">
@@ -42286,7 +42286,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="8" t="n">
-        <v>1484.758026487783</v>
+        <v>1785.223313926165</v>
       </c>
     </row>
     <row r="674">
@@ -42294,7 +42294,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="8" t="n">
-        <v>1536.709201245259</v>
+        <v>1606.896970426025</v>
       </c>
     </row>
     <row r="675">
@@ -42302,7 +42302,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="8" t="n">
-        <v>1705.27956240946</v>
+        <v>1325.697261987169</v>
       </c>
     </row>
     <row r="676">
@@ -42310,7 +42310,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="8" t="n">
-        <v>1507.303221262168</v>
+        <v>1503.323621900453</v>
       </c>
     </row>
     <row r="677">
@@ -42318,7 +42318,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="8" t="n">
-        <v>1461.899979858181</v>
+        <v>1385.430898711388</v>
       </c>
     </row>
     <row r="678">
@@ -42326,7 +42326,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="8" t="n">
-        <v>1738.297725916506</v>
+        <v>1706.128547956811</v>
       </c>
     </row>
     <row r="679">
@@ -42334,7 +42334,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="8" t="n">
-        <v>1535.131325707366</v>
+        <v>1481.811903817864</v>
       </c>
     </row>
     <row r="680">
@@ -42342,7 +42342,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="8" t="n">
-        <v>1444.54552485092</v>
+        <v>1801.716933004538</v>
       </c>
     </row>
     <row r="681">
@@ -42350,7 +42350,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="8" t="n">
-        <v>1516.550099935699</v>
+        <v>1548.184418459934</v>
       </c>
     </row>
     <row r="682">
@@ -42358,7 +42358,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="8" t="n">
-        <v>1593.684104074765</v>
+        <v>1650.168713210767</v>
       </c>
     </row>
     <row r="683">
@@ -42366,7 +42366,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="8" t="n">
-        <v>1385.785218915901</v>
+        <v>1476.87386206606</v>
       </c>
     </row>
     <row r="684">
@@ -42374,7 +42374,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="8" t="n">
-        <v>1534.891762766458</v>
+        <v>1728.351552473082</v>
       </c>
     </row>
     <row r="685">
@@ -42382,7 +42382,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="8" t="n">
-        <v>1543.335577362921</v>
+        <v>1480.211430317528</v>
       </c>
     </row>
     <row r="686">
@@ -42390,7 +42390,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="8" t="n">
-        <v>1485.530938748552</v>
+        <v>1619.142046129483</v>
       </c>
     </row>
     <row r="687">
@@ -42398,7 +42398,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="8" t="n">
-        <v>1635.80414548347</v>
+        <v>1847.633638462301</v>
       </c>
     </row>
     <row r="688">
@@ -42406,7 +42406,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="8" t="n">
-        <v>1352.579804858667</v>
+        <v>1468.355397523322</v>
       </c>
     </row>
     <row r="689">
@@ -42414,7 +42414,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="8" t="n">
-        <v>1680.068834891745</v>
+        <v>1404.573626047896</v>
       </c>
     </row>
     <row r="690">
@@ -42422,7 +42422,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="8" t="n">
-        <v>1760.613532784717</v>
+        <v>1447.9563982048</v>
       </c>
     </row>
     <row r="691">
@@ -42430,7 +42430,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="8" t="n">
-        <v>1387.018091403329</v>
+        <v>1390.704418831693</v>
       </c>
     </row>
     <row r="692">
@@ -42438,7 +42438,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="8" t="n">
-        <v>1796.316195457458</v>
+        <v>1649.402301820978</v>
       </c>
     </row>
     <row r="693">
@@ -42446,7 +42446,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="8" t="n">
-        <v>1673.590029266679</v>
+        <v>1486.144092028947</v>
       </c>
     </row>
     <row r="694">
@@ -42454,7 +42454,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="8" t="n">
-        <v>1380.116675283509</v>
+        <v>1698.053634816639</v>
       </c>
     </row>
     <row r="695">
@@ -42462,7 +42462,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="8" t="n">
-        <v>1814.119097580977</v>
+        <v>1560.253295489751</v>
       </c>
     </row>
     <row r="696">
@@ -42470,7 +42470,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="8" t="n">
-        <v>1580.351380279215</v>
+        <v>1607.561948883774</v>
       </c>
     </row>
     <row r="697">
@@ -42478,7 +42478,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="8" t="n">
-        <v>1407.857681636036</v>
+        <v>1654.92924310063</v>
       </c>
     </row>
     <row r="698">
@@ -42486,7 +42486,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="8" t="n">
-        <v>1883.377971738114</v>
+        <v>1438.636890540377</v>
       </c>
     </row>
     <row r="699">
@@ -42494,7 +42494,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="8" t="n">
-        <v>1532.058652629795</v>
+        <v>1303.578818357014</v>
       </c>
     </row>
     <row r="700">
@@ -42502,7 +42502,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="8" t="n">
-        <v>1864.105939760486</v>
+        <v>1250.656990075503</v>
       </c>
     </row>
     <row r="701">
@@ -42510,7 +42510,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="8" t="n">
-        <v>1654.529263801712</v>
+        <v>1559.131348575839</v>
       </c>
     </row>
     <row r="702">
@@ -42518,7 +42518,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="8" t="n">
-        <v>1368.684652472619</v>
+        <v>1369.940851166234</v>
       </c>
     </row>
     <row r="703">
@@ -42526,7 +42526,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="8" t="n">
-        <v>1813.2281620079</v>
+        <v>1735.557132799862</v>
       </c>
     </row>
     <row r="704">
@@ -42534,7 +42534,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="8" t="n">
-        <v>1337.994762503104</v>
+        <v>1467.098355384359</v>
       </c>
     </row>
     <row r="705">
@@ -42542,7 +42542,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="8" t="n">
-        <v>1689.055386189817</v>
+        <v>1817.089670701533</v>
       </c>
     </row>
     <row r="706">
@@ -42550,7 +42550,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="8" t="n">
-        <v>1700.898703079945</v>
+        <v>1801.313584216652</v>
       </c>
     </row>
     <row r="707">
@@ -42558,7 +42558,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="8" t="n">
-        <v>1453.710962017068</v>
+        <v>1651.539886480374</v>
       </c>
     </row>
     <row r="708">
@@ -42566,7 +42566,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="8" t="n">
-        <v>1795.009054152666</v>
+        <v>1819.49131932671</v>
       </c>
     </row>
     <row r="709">
@@ -42574,7 +42574,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="8" t="n">
-        <v>1597.284860132759</v>
+        <v>1760.00532689923</v>
       </c>
     </row>
     <row r="710">
@@ -42582,7 +42582,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="8" t="n">
-        <v>1424.984792347651</v>
+        <v>1551.796461522864</v>
       </c>
     </row>
     <row r="711">
@@ -42590,7 +42590,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="8" t="n">
-        <v>1854.386581567204</v>
+        <v>1601.873057571406</v>
       </c>
     </row>
     <row r="712">
@@ -42598,7 +42598,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="8" t="n">
-        <v>1784.547826394101</v>
+        <v>1621.455342168596</v>
       </c>
     </row>
     <row r="713">
@@ -42606,7 +42606,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="8" t="n">
-        <v>1661.58813498133</v>
+        <v>1364.664490008013</v>
       </c>
     </row>
     <row r="714">
@@ -42614,7 +42614,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="8" t="n">
-        <v>1641.70115983314</v>
+        <v>1584.091382658495</v>
       </c>
     </row>
     <row r="715">
@@ -42622,7 +42622,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="8" t="n">
-        <v>1349.128530755025</v>
+        <v>1507.252366844356</v>
       </c>
     </row>
     <row r="716">
@@ -42630,7 +42630,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="8" t="n">
-        <v>1510.400730380979</v>
+        <v>1465.526904525773</v>
       </c>
     </row>
     <row r="717">
@@ -42638,7 +42638,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="8" t="n">
-        <v>1472.562764313101</v>
+        <v>1644.755790333148</v>
       </c>
     </row>
     <row r="718">
@@ -42646,7 +42646,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="8" t="n">
-        <v>1578.650936427239</v>
+        <v>1829.027014606019</v>
       </c>
     </row>
     <row r="719">
@@ -42654,7 +42654,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="8" t="n">
-        <v>1827.704908624913</v>
+        <v>1540.60632569042</v>
       </c>
     </row>
     <row r="720">
@@ -42662,7 +42662,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="8" t="n">
-        <v>1781.92945834389</v>
+        <v>1341.04719741801</v>
       </c>
     </row>
     <row r="721">
@@ -42670,7 +42670,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="8" t="n">
-        <v>1750.591571228289</v>
+        <v>1645.955303919742</v>
       </c>
     </row>
     <row r="722">
@@ -42678,7 +42678,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="8" t="n">
-        <v>1757.011571608327</v>
+        <v>1628.132584983917</v>
       </c>
     </row>
     <row r="723">
@@ -42686,7 +42686,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="8" t="n">
-        <v>1403.236170742179</v>
+        <v>1398.101006687354</v>
       </c>
     </row>
     <row r="724">
@@ -42694,7 +42694,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="8" t="n">
-        <v>1489.646808582301</v>
+        <v>1483.645708403904</v>
       </c>
     </row>
     <row r="725">
@@ -42702,7 +42702,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="8" t="n">
-        <v>1334.756374677053</v>
+        <v>1599.311867842186</v>
       </c>
     </row>
     <row r="726">
@@ -42710,7 +42710,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="8" t="n">
-        <v>1687.908251869829</v>
+        <v>1720.292650120345</v>
       </c>
     </row>
     <row r="727">
@@ -42718,7 +42718,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="8" t="n">
-        <v>1829.97996559341</v>
+        <v>1366.142394304723</v>
       </c>
     </row>
     <row r="728">
@@ -42726,7 +42726,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="8" t="n">
-        <v>1400.781794987338</v>
+        <v>1765.582693607795</v>
       </c>
     </row>
     <row r="729">
@@ -42734,7 +42734,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="8" t="n">
-        <v>1387.050214383579</v>
+        <v>1318.077913179548</v>
       </c>
     </row>
     <row r="730">
@@ -42742,7 +42742,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="8" t="n">
-        <v>1828.934294099354</v>
+        <v>1505.308623380033</v>
       </c>
     </row>
     <row r="731">
@@ -42750,7 +42750,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="8" t="n">
-        <v>1530.395392371423</v>
+        <v>1541.282260857414</v>
       </c>
     </row>
     <row r="732">
@@ -42758,7 +42758,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="8" t="n">
-        <v>1668.545261660918</v>
+        <v>1834.287732298871</v>
       </c>
     </row>
     <row r="733">
@@ -42766,7 +42766,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="8" t="n">
-        <v>1444.222886059882</v>
+        <v>1596.67357928431</v>
       </c>
     </row>
     <row r="734">
@@ -42774,7 +42774,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="8" t="n">
-        <v>1534.665558985495</v>
+        <v>1520.316810504814</v>
       </c>
     </row>
     <row r="735">
@@ -42782,7 +42782,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="8" t="n">
-        <v>1762.103223987792</v>
+        <v>1855.540233164329</v>
       </c>
     </row>
     <row r="736">
@@ -42790,7 +42790,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="8" t="n">
-        <v>1520.614835285614</v>
+        <v>1562.876128350757</v>
       </c>
     </row>
     <row r="737">
@@ -42798,7 +42798,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="8" t="n">
-        <v>1612.691093933692</v>
+        <v>1694.113019728924</v>
       </c>
     </row>
     <row r="738">
@@ -42806,7 +42806,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="8" t="n">
-        <v>1681.440026305628</v>
+        <v>1417.883176222449</v>
       </c>
     </row>
     <row r="739">
@@ -42814,7 +42814,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="8" t="n">
-        <v>1735.47860314833</v>
+        <v>1617.286963713514</v>
       </c>
     </row>
     <row r="740">
@@ -42822,7 +42822,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="8" t="n">
-        <v>1576.681661514435</v>
+        <v>1428.106192727102</v>
       </c>
     </row>
     <row r="741">
@@ -42830,7 +42830,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="8" t="n">
-        <v>1487.312720024255</v>
+        <v>1681.422290826944</v>
       </c>
     </row>
     <row r="742">
@@ -42838,7 +42838,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="8" t="n">
-        <v>1654.611183870622</v>
+        <v>1448.419401879277</v>
       </c>
     </row>
     <row r="743">
@@ -42846,7 +42846,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="8" t="n">
-        <v>1755.938218634651</v>
+        <v>1689.266375277262</v>
       </c>
     </row>
     <row r="744">
@@ -42854,7 +42854,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="8" t="n">
-        <v>1692.374641236481</v>
+        <v>1361.528853669382</v>
       </c>
     </row>
     <row r="745">
@@ -42862,7 +42862,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="8" t="n">
-        <v>1363.897255689949</v>
+        <v>1533.624825920495</v>
       </c>
     </row>
     <row r="746">
@@ -42870,7 +42870,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="8" t="n">
-        <v>1613.301796709829</v>
+        <v>1838.457832819445</v>
       </c>
     </row>
     <row r="747">
@@ -42878,7 +42878,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="8" t="n">
-        <v>1450.66915140119</v>
+        <v>1493.406078614898</v>
       </c>
     </row>
     <row r="748">
@@ -42886,7 +42886,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="8" t="n">
-        <v>1665.396329125242</v>
+        <v>1440.272665279011</v>
       </c>
     </row>
     <row r="749">
@@ -42894,7 +42894,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="8" t="n">
-        <v>1635.591748434775</v>
+        <v>1635.102749988501</v>
       </c>
     </row>
     <row r="750">
@@ -42902,7 +42902,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="8" t="n">
-        <v>1425.180102688118</v>
+        <v>1514.382793227671</v>
       </c>
     </row>
     <row r="751">
@@ -42910,7 +42910,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="8" t="n">
-        <v>1671.159659093574</v>
+        <v>1865.235568232182</v>
       </c>
     </row>
     <row r="752">
@@ -42918,7 +42918,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="8" t="n">
-        <v>1511.483777235944</v>
+        <v>1624.370829120084</v>
       </c>
     </row>
     <row r="753">
@@ -42926,7 +42926,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="8" t="n">
-        <v>1411.707077459835</v>
+        <v>1669.221842828451</v>
       </c>
     </row>
     <row r="754">
@@ -42934,7 +42934,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="8" t="n">
-        <v>1752.473622120524</v>
+        <v>1693.456148016594</v>
       </c>
     </row>
     <row r="755">
@@ -42942,7 +42942,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="8" t="n">
-        <v>1326.236696756463</v>
+        <v>1493.740153644809</v>
       </c>
     </row>
     <row r="756">
@@ -42950,7 +42950,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="8" t="n">
-        <v>1414.858267835053</v>
+        <v>1428.856692951501</v>
       </c>
     </row>
     <row r="757">
@@ -42958,7 +42958,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="8" t="n">
-        <v>1401.872381188602</v>
+        <v>1785.522049259489</v>
       </c>
     </row>
     <row r="758">
@@ -42966,7 +42966,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="8" t="n">
-        <v>1600.763577072113</v>
+        <v>1828.343653926036</v>
       </c>
     </row>
     <row r="759">
@@ -42974,7 +42974,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="8" t="n">
-        <v>1437.94424073732</v>
+        <v>1541.830994947129</v>
       </c>
     </row>
     <row r="760">
@@ -42982,7 +42982,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="8" t="n">
-        <v>1556.990841968325</v>
+        <v>1711.172114335322</v>
       </c>
     </row>
     <row r="761">
@@ -42990,7 +42990,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="8" t="n">
-        <v>1811.320411949199</v>
+        <v>1830.817200254266</v>
       </c>
     </row>
     <row r="762">
@@ -42998,7 +42998,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="8" t="n">
-        <v>1479.025925491623</v>
+        <v>1530.82367921227</v>
       </c>
     </row>
     <row r="763">
@@ -43006,7 +43006,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="8" t="n">
-        <v>1369.585112218658</v>
+        <v>1446.654716516236</v>
       </c>
     </row>
     <row r="764">
@@ -43014,7 +43014,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="8" t="n">
-        <v>1417.236267009446</v>
+        <v>1548.525786837469</v>
       </c>
     </row>
     <row r="765">
@@ -43022,7 +43022,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="8" t="n">
-        <v>1752.347631308243</v>
+        <v>1819.039905781462</v>
       </c>
     </row>
     <row r="766">
@@ -43030,7 +43030,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="8" t="n">
-        <v>1365.021279359893</v>
+        <v>1602.054542335057</v>
       </c>
     </row>
     <row r="767">
@@ -43038,7 +43038,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="8" t="n">
-        <v>1798.022403156479</v>
+        <v>1611.13370597029</v>
       </c>
     </row>
     <row r="768">
@@ -43046,7 +43046,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="8" t="n">
-        <v>1533.13765215584</v>
+        <v>1772.397818897175</v>
       </c>
     </row>
     <row r="769">
@@ -43054,7 +43054,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="8" t="n">
-        <v>1663.029261084954</v>
+        <v>1664.373795209083</v>
       </c>
     </row>
     <row r="770">
@@ -43062,7 +43062,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="8" t="n">
-        <v>1697.336366049524</v>
+        <v>1775.915079389547</v>
       </c>
     </row>
     <row r="771">
@@ -43070,7 +43070,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="8" t="n">
-        <v>1432.811065705627</v>
+        <v>1330.870654046145</v>
       </c>
     </row>
     <row r="772">
@@ -43078,7 +43078,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="8" t="n">
-        <v>1297.293153019146</v>
+        <v>1348.642287195939</v>
       </c>
     </row>
     <row r="773">
@@ -43086,7 +43086,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="8" t="n">
-        <v>1470.175346583645</v>
+        <v>1690.041367283365</v>
       </c>
     </row>
     <row r="774">
@@ -43094,7 +43094,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="8" t="n">
-        <v>1760.403999333271</v>
+        <v>1536.948792358186</v>
       </c>
     </row>
     <row r="775">
@@ -43102,7 +43102,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="8" t="n">
-        <v>1844.518939124148</v>
+        <v>1699.10818138996</v>
       </c>
     </row>
     <row r="776">
@@ -43110,7 +43110,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="8" t="n">
-        <v>1461.403164463456</v>
+        <v>1648.140736280906</v>
       </c>
     </row>
     <row r="777">
@@ -43118,7 +43118,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="8" t="n">
-        <v>1583.579899466738</v>
+        <v>1796.120688675453</v>
       </c>
     </row>
     <row r="778">
@@ -43126,7 +43126,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="8" t="n">
-        <v>1287.740596692205</v>
+        <v>1386.099697012554</v>
       </c>
     </row>
     <row r="779">
@@ -43134,7 +43134,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="8" t="n">
-        <v>1584.190819404758</v>
+        <v>1417.900806064719</v>
       </c>
     </row>
     <row r="780">
@@ -43142,7 +43142,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="8" t="n">
-        <v>1444.617990454581</v>
+        <v>1537.423299572166</v>
       </c>
     </row>
     <row r="781">
@@ -43150,7 +43150,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="8" t="n">
-        <v>1346.562663203791</v>
+        <v>1784.499776578375</v>
       </c>
     </row>
     <row r="782">
@@ -43158,7 +43158,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="8" t="n">
-        <v>1610.223816866029</v>
+        <v>1466.259408319303</v>
       </c>
     </row>
     <row r="783">
@@ -43166,7 +43166,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="8" t="n">
-        <v>1518.05782118472</v>
+        <v>1550.146847436146</v>
       </c>
     </row>
     <row r="784">
@@ -43174,7 +43174,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="8" t="n">
-        <v>1842.881561775169</v>
+        <v>1352.378877062886</v>
       </c>
     </row>
     <row r="785">
@@ -43182,7 +43182,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="8" t="n">
-        <v>1467.229475051867</v>
+        <v>1488.208020311005</v>
       </c>
     </row>
     <row r="786">
@@ -43190,7 +43190,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="8" t="n">
-        <v>1563.319719860281</v>
+        <v>1713.147630956211</v>
       </c>
     </row>
     <row r="787">
@@ -43198,7 +43198,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="8" t="n">
-        <v>1735.651069932539</v>
+        <v>1542.966646438121</v>
       </c>
     </row>
     <row r="788">
@@ -43206,7 +43206,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="8" t="n">
-        <v>1542.870589439737</v>
+        <v>1546.204865233871</v>
       </c>
     </row>
     <row r="789">
@@ -43214,7 +43214,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="8" t="n">
-        <v>1713.667030771212</v>
+        <v>1829.146886069629</v>
       </c>
     </row>
     <row r="790">
@@ -43222,7 +43222,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="8" t="n">
-        <v>1801.059646917766</v>
+        <v>1425.504468836629</v>
       </c>
     </row>
     <row r="791">
@@ -43230,7 +43230,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="8" t="n">
-        <v>1536.953648846724</v>
+        <v>1502.184733478431</v>
       </c>
     </row>
     <row r="792">
@@ -43238,7 +43238,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="8" t="n">
-        <v>1835.739856946518</v>
+        <v>1513.312344387539</v>
       </c>
     </row>
     <row r="793">
@@ -43246,7 +43246,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="8" t="n">
-        <v>1715.021863938585</v>
+        <v>1736.294424729048</v>
       </c>
     </row>
     <row r="794">
@@ -43254,7 +43254,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="8" t="n">
-        <v>1572.884597872096</v>
+        <v>1745.250091889216</v>
       </c>
     </row>
     <row r="795">
@@ -43262,7 +43262,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="8" t="n">
-        <v>1789.79442226036</v>
+        <v>1447.865634448924</v>
       </c>
     </row>
     <row r="796">
@@ -43270,7 +43270,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="8" t="n">
-        <v>1766.702104661869</v>
+        <v>1324.820007302461</v>
       </c>
     </row>
     <row r="797">
@@ -43278,7 +43278,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="8" t="n">
-        <v>1600.20683249825</v>
+        <v>1449.843737747335</v>
       </c>
     </row>
     <row r="798">
@@ -43286,7 +43286,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="8" t="n">
-        <v>1532.965792144157</v>
+        <v>1545.285744347345</v>
       </c>
     </row>
     <row r="799">
@@ -43294,7 +43294,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="8" t="n">
-        <v>1729.230960957269</v>
+        <v>1335.31920023803</v>
       </c>
     </row>
     <row r="800">
@@ -43302,7 +43302,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="8" t="n">
-        <v>1353.689064768814</v>
+        <v>1667.390829262624</v>
       </c>
     </row>
     <row r="801">
@@ -43310,7 +43310,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="8" t="n">
-        <v>1469.922445830258</v>
+        <v>1698.104356666068</v>
       </c>
     </row>
     <row r="802">
@@ -43318,7 +43318,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="8" t="n">
-        <v>1460.047435942397</v>
+        <v>1692.638267383113</v>
       </c>
     </row>
     <row r="803">
@@ -43326,7 +43326,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="8" t="n">
-        <v>1500.787529318486</v>
+        <v>1622.429849601603</v>
       </c>
     </row>
     <row r="804">
@@ -43334,7 +43334,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="8" t="n">
-        <v>1616.735840589649</v>
+        <v>1663.394053578779</v>
       </c>
     </row>
     <row r="805">
@@ -43342,7 +43342,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="8" t="n">
-        <v>1764.677070585153</v>
+        <v>1452.396646537266</v>
       </c>
     </row>
     <row r="806">
@@ -43350,7 +43350,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="8" t="n">
-        <v>1583.034690284371</v>
+        <v>1729.064142618269</v>
       </c>
     </row>
     <row r="807">
@@ -43358,7 +43358,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="8" t="n">
-        <v>1272.061896826429</v>
+        <v>1544.288610438353</v>
       </c>
     </row>
     <row r="808">
@@ -43366,7 +43366,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="8" t="n">
-        <v>1614.665437852317</v>
+        <v>1505.500657821819</v>
       </c>
     </row>
     <row r="809">
@@ -43374,7 +43374,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="8" t="n">
-        <v>1613.005676579298</v>
+        <v>1495.880752217082</v>
       </c>
     </row>
     <row r="810">
@@ -43382,7 +43382,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="8" t="n">
-        <v>1730.340879072789</v>
+        <v>1498.54428105869</v>
       </c>
     </row>
     <row r="811">
@@ -43390,7 +43390,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="8" t="n">
-        <v>1410.389278899275</v>
+        <v>1696.174251968353</v>
       </c>
     </row>
     <row r="812">
@@ -43398,7 +43398,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="8" t="n">
-        <v>1530.634128229277</v>
+        <v>1539.215872225072</v>
       </c>
     </row>
     <row r="813">
@@ -43406,7 +43406,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="8" t="n">
-        <v>1496.796820458104</v>
+        <v>1465.070222545161</v>
       </c>
     </row>
     <row r="814">
@@ -43414,7 +43414,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="8" t="n">
-        <v>1302.216993425721</v>
+        <v>1822.384919446992</v>
       </c>
     </row>
     <row r="815">
@@ -43422,7 +43422,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="8" t="n">
-        <v>1449.831134709342</v>
+        <v>1618.245167829258</v>
       </c>
     </row>
     <row r="816">
@@ -43430,7 +43430,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="8" t="n">
-        <v>1363.934452303751</v>
+        <v>1436.34584748062</v>
       </c>
     </row>
     <row r="817">
@@ -43438,7 +43438,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="8" t="n">
-        <v>1357.273980336661</v>
+        <v>1789.984471171939</v>
       </c>
     </row>
     <row r="818">
@@ -43446,7 +43446,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="8" t="n">
-        <v>1778.77869614029</v>
+        <v>1659.916942713617</v>
       </c>
     </row>
     <row r="819">
@@ -43454,7 +43454,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="8" t="n">
-        <v>1277.041022867433</v>
+        <v>1474.089054102343</v>
       </c>
     </row>
     <row r="820">
@@ -43462,7 +43462,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="8" t="n">
-        <v>1644.322111291695</v>
+        <v>1567.039925766639</v>
       </c>
     </row>
     <row r="821">
@@ -43470,7 +43470,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="8" t="n">
-        <v>1514.736770033104</v>
+        <v>1514.721260228024</v>
       </c>
     </row>
     <row r="822">
@@ -43478,7 +43478,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="8" t="n">
-        <v>1411.280164738468</v>
+        <v>1694.351300046668</v>
       </c>
     </row>
     <row r="823">
@@ -43486,7 +43486,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="8" t="n">
-        <v>1428.708653305551</v>
+        <v>1764.813439149256</v>
       </c>
     </row>
     <row r="824">
@@ -43494,7 +43494,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="8" t="n">
-        <v>1745.802387622783</v>
+        <v>1503.172595337623</v>
       </c>
     </row>
     <row r="825">
@@ -43502,7 +43502,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="8" t="n">
-        <v>1676.422072649145</v>
+        <v>1455.616960711311</v>
       </c>
     </row>
     <row r="826">
@@ -43510,7 +43510,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="8" t="n">
-        <v>1388.96947803612</v>
+        <v>1834.878514345552</v>
       </c>
     </row>
     <row r="827">
@@ -43518,7 +43518,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="8" t="n">
-        <v>1473.62881751561</v>
+        <v>1579.499382948227</v>
       </c>
     </row>
     <row r="828">
@@ -43526,7 +43526,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="8" t="n">
-        <v>1568.553998760379</v>
+        <v>1528.031345511997</v>
       </c>
     </row>
     <row r="829">
@@ -43534,7 +43534,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="8" t="n">
-        <v>1403.481062247503</v>
+        <v>1362.853909222912</v>
       </c>
     </row>
     <row r="830">
@@ -43542,7 +43542,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="8" t="n">
-        <v>1408.835248296469</v>
+        <v>1523.141056905899</v>
       </c>
     </row>
     <row r="831">
@@ -43550,7 +43550,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="8" t="n">
-        <v>1464.129678332546</v>
+        <v>1296.402742010439</v>
       </c>
     </row>
     <row r="832">
@@ -43558,7 +43558,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="8" t="n">
-        <v>1915.146841114703</v>
+        <v>1460.145637518559</v>
       </c>
     </row>
     <row r="833">
@@ -43566,7 +43566,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="8" t="n">
-        <v>1671.562247849291</v>
+        <v>1818.391753560761</v>
       </c>
     </row>
     <row r="834">
@@ -43574,7 +43574,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="8" t="n">
-        <v>1586.476847294417</v>
+        <v>1812.586376246327</v>
       </c>
     </row>
     <row r="835">
@@ -43582,7 +43582,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="8" t="n">
-        <v>1519.953444821813</v>
+        <v>1676.013500530416</v>
       </c>
     </row>
     <row r="836">
@@ -43590,7 +43590,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="8" t="n">
-        <v>1683.562531847275</v>
+        <v>1715.977383826279</v>
       </c>
     </row>
     <row r="837">
@@ -43598,7 +43598,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="8" t="n">
-        <v>1690.91575671063</v>
+        <v>1590.413947014097</v>
       </c>
     </row>
     <row r="838">
@@ -43606,7 +43606,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="8" t="n">
-        <v>1808.701947437504</v>
+        <v>1384.964251894258</v>
       </c>
     </row>
     <row r="839">
@@ -43614,7 +43614,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="8" t="n">
-        <v>1833.373855884911</v>
+        <v>1547.857100480782</v>
       </c>
     </row>
     <row r="840">
@@ -43622,7 +43622,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="8" t="n">
-        <v>1485.89036492436</v>
+        <v>1391.572643865659</v>
       </c>
     </row>
     <row r="841">
@@ -43630,7 +43630,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="8" t="n">
-        <v>1481.053043566839</v>
+        <v>1527.889969947909</v>
       </c>
     </row>
     <row r="842">
@@ -43638,7 +43638,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="8" t="n">
-        <v>1860.06693621144</v>
+        <v>1805.841710943999</v>
       </c>
     </row>
     <row r="843">
@@ -43646,7 +43646,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="8" t="n">
-        <v>1748.934491039008</v>
+        <v>1424.57892227645</v>
       </c>
     </row>
     <row r="844">
@@ -43654,7 +43654,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="8" t="n">
-        <v>1455.799390969468</v>
+        <v>1824.507449834268</v>
       </c>
     </row>
     <row r="845">
@@ -43662,7 +43662,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="8" t="n">
-        <v>1679.909850657863</v>
+        <v>1354.836915729831</v>
       </c>
     </row>
     <row r="846">
@@ -43670,7 +43670,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="8" t="n">
-        <v>1723.827708745222</v>
+        <v>1666.277193640862</v>
       </c>
     </row>
     <row r="847">
@@ -43678,7 +43678,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="8" t="n">
-        <v>1721.913608132924</v>
+        <v>1814.623934016377</v>
       </c>
     </row>
     <row r="848">
@@ -43686,7 +43686,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="8" t="n">
-        <v>1625.52631509918</v>
+        <v>1293.709038313728</v>
       </c>
     </row>
     <row r="849">
@@ -43694,7 +43694,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="8" t="n">
-        <v>1568.118205071723</v>
+        <v>1684.24866659667</v>
       </c>
     </row>
     <row r="850">
@@ -43702,7 +43702,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="8" t="n">
-        <v>1534.678204506778</v>
+        <v>1733.553982949821</v>
       </c>
     </row>
     <row r="851">
@@ -43710,7 +43710,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="8" t="n">
-        <v>1773.805008107735</v>
+        <v>1686.307669788373</v>
       </c>
     </row>
     <row r="852">
@@ -43718,7 +43718,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="8" t="n">
-        <v>1564.522995673405</v>
+        <v>1369.564007389556</v>
       </c>
     </row>
     <row r="853">
@@ -43726,7 +43726,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="8" t="n">
-        <v>1848.091821705884</v>
+        <v>1640.996670736744</v>
       </c>
     </row>
     <row r="854">
@@ -43734,7 +43734,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="8" t="n">
-        <v>1340.658876931934</v>
+        <v>1575.002422875177</v>
       </c>
     </row>
     <row r="855">
@@ -43742,7 +43742,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="8" t="n">
-        <v>1878.374141472438</v>
+        <v>1703.406205906173</v>
       </c>
     </row>
     <row r="856">
@@ -43750,7 +43750,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="8" t="n">
-        <v>1598.521640056896</v>
+        <v>1535.559808287553</v>
       </c>
     </row>
     <row r="857">
@@ -43758,7 +43758,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="8" t="n">
-        <v>1681.900231593271</v>
+        <v>1445.274065746884</v>
       </c>
     </row>
     <row r="858">
@@ -43766,7 +43766,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="8" t="n">
-        <v>1698.4452726974</v>
+        <v>1578.316377602447</v>
       </c>
     </row>
     <row r="859">
@@ -43774,7 +43774,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="8" t="n">
-        <v>1871.621578536477</v>
+        <v>1439.510911104368</v>
       </c>
     </row>
     <row r="860">
@@ -43782,7 +43782,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="8" t="n">
-        <v>1815.46752943741</v>
+        <v>1318.185093582528</v>
       </c>
     </row>
     <row r="861">
@@ -43790,7 +43790,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="8" t="n">
-        <v>1668.16710818307</v>
+        <v>1659.575067347536</v>
       </c>
     </row>
     <row r="862">
@@ -43798,7 +43798,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="8" t="n">
-        <v>1711.913622907656</v>
+        <v>1499.937940172869</v>
       </c>
     </row>
     <row r="863">
@@ -43806,7 +43806,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="8" t="n">
-        <v>1684.238922915069</v>
+        <v>1726.700613094653</v>
       </c>
     </row>
     <row r="864">
@@ -43814,7 +43814,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="8" t="n">
-        <v>1729.313169253192</v>
+        <v>1320.482831664205</v>
       </c>
     </row>
     <row r="865">
@@ -43822,7 +43822,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="8" t="n">
-        <v>1472.394954658684</v>
+        <v>1522.959080431015</v>
       </c>
     </row>
     <row r="866">
@@ -43830,7 +43830,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="8" t="n">
-        <v>1652.304495121697</v>
+        <v>1591.96826167903</v>
       </c>
     </row>
     <row r="867">
@@ -43838,7 +43838,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="8" t="n">
-        <v>1772.358292856038</v>
+        <v>1497.915960500048</v>
       </c>
     </row>
     <row r="868">
@@ -43846,7 +43846,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="8" t="n">
-        <v>1696.129425792654</v>
+        <v>1613.496682102668</v>
       </c>
     </row>
     <row r="869">
@@ -43854,7 +43854,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="8" t="n">
-        <v>1617.750006836203</v>
+        <v>1457.142205261857</v>
       </c>
     </row>
     <row r="870">
@@ -43862,7 +43862,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="8" t="n">
-        <v>1366.719019335749</v>
+        <v>1525.871185862459</v>
       </c>
     </row>
     <row r="871">
@@ -43870,7 +43870,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="8" t="n">
-        <v>1722.513052557722</v>
+        <v>1612.612001508787</v>
       </c>
     </row>
     <row r="872">
@@ -43878,7 +43878,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="8" t="n">
-        <v>1464.041238805903</v>
+        <v>1571.306631494441</v>
       </c>
     </row>
     <row r="873">
@@ -43886,7 +43886,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="8" t="n">
-        <v>1800.747578294784</v>
+        <v>1397.270037670465</v>
       </c>
     </row>
     <row r="874">
@@ -43894,7 +43894,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="8" t="n">
-        <v>1643.903833631524</v>
+        <v>1450.966337091966</v>
       </c>
     </row>
     <row r="875">
@@ -43902,7 +43902,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="8" t="n">
-        <v>1589.815377743939</v>
+        <v>1566.940610248106</v>
       </c>
     </row>
     <row r="876">
@@ -43910,7 +43910,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="8" t="n">
-        <v>1707.42017551775</v>
+        <v>1472.91591811846</v>
       </c>
     </row>
     <row r="877">
@@ -43918,7 +43918,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="8" t="n">
-        <v>1873.613339460492</v>
+        <v>1655.418670572622</v>
       </c>
     </row>
     <row r="878">
@@ -43926,7 +43926,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="8" t="n">
-        <v>1340.126038239039</v>
+        <v>1632.702098827267</v>
       </c>
     </row>
     <row r="879">
@@ -43934,7 +43934,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="8" t="n">
-        <v>1364.637416721376</v>
+        <v>1529.927118993244</v>
       </c>
     </row>
     <row r="880">
@@ -43942,7 +43942,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="8" t="n">
-        <v>1465.458967634824</v>
+        <v>1457.93169261157</v>
       </c>
     </row>
     <row r="881">
@@ -43950,7 +43950,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="8" t="n">
-        <v>1671.251308766262</v>
+        <v>1800.655905600119</v>
       </c>
     </row>
     <row r="882">
@@ -43958,7 +43958,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="8" t="n">
-        <v>1470.068862984195</v>
+        <v>1644.117130651991</v>
       </c>
     </row>
     <row r="883">
@@ -43966,7 +43966,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="8" t="n">
-        <v>1556.106684960144</v>
+        <v>1401.021840802076</v>
       </c>
     </row>
     <row r="884">
@@ -43974,7 +43974,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="8" t="n">
-        <v>1782.476871110847</v>
+        <v>1474.233270504525</v>
       </c>
     </row>
     <row r="885">
@@ -43982,7 +43982,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="8" t="n">
-        <v>1887.116581393345</v>
+        <v>1836.084709334691</v>
       </c>
     </row>
     <row r="886">
@@ -43990,7 +43990,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="8" t="n">
-        <v>1579.558741446591</v>
+        <v>1374.53054560006</v>
       </c>
     </row>
     <row r="887">
@@ -43998,7 +43998,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="8" t="n">
-        <v>1520.077292833108</v>
+        <v>1521.912370034725</v>
       </c>
     </row>
     <row r="888">
@@ -44006,7 +44006,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="8" t="n">
-        <v>1678.508169146184</v>
+        <v>1454.698881709324</v>
       </c>
     </row>
     <row r="889">
@@ -44014,7 +44014,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="8" t="n">
-        <v>1870.434156464867</v>
+        <v>1715.864352556297</v>
       </c>
     </row>
     <row r="890">
@@ -44022,7 +44022,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="8" t="n">
-        <v>1446.604516760083</v>
+        <v>1551.198914781997</v>
       </c>
     </row>
     <row r="891">
@@ -44030,7 +44030,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="8" t="n">
-        <v>1390.821705751574</v>
+        <v>1443.462169459072</v>
       </c>
     </row>
     <row r="892">
@@ -44038,7 +44038,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="8" t="n">
-        <v>1650.381328475339</v>
+        <v>1752.091449842406</v>
       </c>
     </row>
     <row r="893">
@@ -44046,7 +44046,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="8" t="n">
-        <v>1673.352288026071</v>
+        <v>1593.996901884982</v>
       </c>
     </row>
     <row r="894">
@@ -44054,7 +44054,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="8" t="n">
-        <v>1645.3638980161</v>
+        <v>1399.196645873876</v>
       </c>
     </row>
     <row r="895">
@@ -44062,7 +44062,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="8" t="n">
-        <v>1667.111035341079</v>
+        <v>1843.223559688607</v>
       </c>
     </row>
     <row r="896">
@@ -44070,7 +44070,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="8" t="n">
-        <v>1672.349722276029</v>
+        <v>1316.309223421653</v>
       </c>
     </row>
     <row r="897">
@@ -44078,7 +44078,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="8" t="n">
-        <v>1920.01931797713</v>
+        <v>1753.065616762317</v>
       </c>
     </row>
     <row r="898">
@@ -44086,7 +44086,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="8" t="n">
-        <v>1474.200496592787</v>
+        <v>1587.00964989313</v>
       </c>
     </row>
     <row r="899">
@@ -44094,7 +44094,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="8" t="n">
-        <v>1353.888401834708</v>
+        <v>1807.552838648003</v>
       </c>
     </row>
     <row r="900">
@@ -44102,7 +44102,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="8" t="n">
-        <v>1795.918126725589</v>
+        <v>1678.211560491098</v>
       </c>
     </row>
     <row r="901">
@@ -44110,7 +44110,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="8" t="n">
-        <v>1481.093942416935</v>
+        <v>1398.027341238799</v>
       </c>
     </row>
     <row r="902">
@@ -44118,7 +44118,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="8" t="n">
-        <v>1334.622048185753</v>
+        <v>1503.66892301843</v>
       </c>
     </row>
     <row r="903">
@@ -44126,7 +44126,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="8" t="n">
-        <v>1780.913457362649</v>
+        <v>1772.154109755329</v>
       </c>
     </row>
     <row r="904">
@@ -44134,7 +44134,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="8" t="n">
-        <v>1765.262356663085</v>
+        <v>1645.750072473551</v>
       </c>
     </row>
     <row r="905">
@@ -44142,7 +44142,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="8" t="n">
-        <v>1544.940657740845</v>
+        <v>1470.368436982665</v>
       </c>
     </row>
     <row r="906">
@@ -44150,7 +44150,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="8" t="n">
-        <v>1409.211977500578</v>
+        <v>1409.321225555992</v>
       </c>
     </row>
     <row r="907">
@@ -44158,7 +44158,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="8" t="n">
-        <v>1378.805421397242</v>
+        <v>1678.413479329686</v>
       </c>
     </row>
     <row r="908">
@@ -44166,7 +44166,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="8" t="n">
-        <v>1875.648045054268</v>
+        <v>1683.390047997952</v>
       </c>
     </row>
     <row r="909">
@@ -44174,7 +44174,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="8" t="n">
-        <v>1521.747714859024</v>
+        <v>1412.402302003316</v>
       </c>
     </row>
     <row r="910">
@@ -44182,7 +44182,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="8" t="n">
-        <v>1484.43595488011</v>
+        <v>1709.94744930566</v>
       </c>
     </row>
     <row r="911">
@@ -44190,7 +44190,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="8" t="n">
-        <v>1438.176839899369</v>
+        <v>1615.034814332482</v>
       </c>
     </row>
     <row r="912">
@@ -44198,7 +44198,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="8" t="n">
-        <v>1634.882019855451</v>
+        <v>1749.793958922495</v>
       </c>
     </row>
     <row r="913">
@@ -44206,7 +44206,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="8" t="n">
-        <v>1851.812842654022</v>
+        <v>1526.33223814875</v>
       </c>
     </row>
     <row r="914">
@@ -44214,7 +44214,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="8" t="n">
-        <v>1640.843663431821</v>
+        <v>1419.215926752623</v>
       </c>
     </row>
     <row r="915">
@@ -44222,7 +44222,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="8" t="n">
-        <v>1534.276228232524</v>
+        <v>1500.82507419458</v>
       </c>
     </row>
     <row r="916">
@@ -44230,7 +44230,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="8" t="n">
-        <v>1803.491420533004</v>
+        <v>1842.934648623426</v>
       </c>
     </row>
     <row r="917">
@@ -44238,7 +44238,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="8" t="n">
-        <v>1826.588581605035</v>
+        <v>1555.114340701419</v>
       </c>
     </row>
     <row r="918">
@@ -44246,7 +44246,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="8" t="n">
-        <v>1754.075187034123</v>
+        <v>1483.121389959753</v>
       </c>
     </row>
     <row r="919">
@@ -44254,7 +44254,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="8" t="n">
-        <v>1668.426661823876</v>
+        <v>1845.930270172283</v>
       </c>
     </row>
     <row r="920">
@@ -44262,7 +44262,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="8" t="n">
-        <v>1683.129088850215</v>
+        <v>1633.629202213445</v>
       </c>
     </row>
     <row r="921">
@@ -44270,7 +44270,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="8" t="n">
-        <v>1446.777805279962</v>
+        <v>1365.178933656635</v>
       </c>
     </row>
     <row r="922">
@@ -44278,7 +44278,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="8" t="n">
-        <v>1576.599714489499</v>
+        <v>1819.574937619192</v>
       </c>
     </row>
     <row r="923">
@@ -44286,7 +44286,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="8" t="n">
-        <v>1536.644416389627</v>
+        <v>1721.057462151114</v>
       </c>
     </row>
     <row r="924">
@@ -44294,7 +44294,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="8" t="n">
-        <v>1553.66779004484</v>
+        <v>1372.397293522542</v>
       </c>
     </row>
     <row r="925">
@@ -44302,7 +44302,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="8" t="n">
-        <v>1811.941176470739</v>
+        <v>1531.734839482887</v>
       </c>
     </row>
     <row r="926">
@@ -44310,7 +44310,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="8" t="n">
-        <v>1466.64449505777</v>
+        <v>1808.39017255022</v>
       </c>
     </row>
     <row r="927">
@@ -44318,7 +44318,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="8" t="n">
-        <v>1685.959919724823</v>
+        <v>1587.808768978101</v>
       </c>
     </row>
     <row r="928">
@@ -44326,7 +44326,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="8" t="n">
-        <v>1510.326638403431</v>
+        <v>1487.188499091189</v>
       </c>
     </row>
     <row r="929">
@@ -44334,7 +44334,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="8" t="n">
-        <v>1540.088431118505</v>
+        <v>1645.643885439728</v>
       </c>
     </row>
     <row r="930">
@@ -44342,7 +44342,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="8" t="n">
-        <v>1373.748032797983</v>
+        <v>1725.864170163416</v>
       </c>
     </row>
     <row r="931">
@@ -44350,7 +44350,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="8" t="n">
-        <v>1546.916322205167</v>
+        <v>1518.246872413045</v>
       </c>
     </row>
     <row r="932">
@@ -44358,7 +44358,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="8" t="n">
-        <v>1576.072312897003</v>
+        <v>1450.124575993925</v>
       </c>
     </row>
     <row r="933">
@@ -44366,7 +44366,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="8" t="n">
-        <v>1731.102735946641</v>
+        <v>1876.408355215178</v>
       </c>
     </row>
     <row r="934">
@@ -44374,7 +44374,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="8" t="n">
-        <v>1516.058925979123</v>
+        <v>1478.607275855949</v>
       </c>
     </row>
     <row r="935">
@@ -44382,7 +44382,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="8" t="n">
-        <v>1501.250611772874</v>
+        <v>1333.606460136038</v>
       </c>
     </row>
     <row r="936">
@@ -44390,7 +44390,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="8" t="n">
-        <v>1715.888293540643</v>
+        <v>1477.236698655332</v>
       </c>
     </row>
     <row r="937">
@@ -44398,7 +44398,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="8" t="n">
-        <v>1526.552263391522</v>
+        <v>1581.978078967252</v>
       </c>
     </row>
     <row r="938">
@@ -44406,7 +44406,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="8" t="n">
-        <v>1677.240373482187</v>
+        <v>1674.425489709315</v>
       </c>
     </row>
     <row r="939">
@@ -44414,7 +44414,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="8" t="n">
-        <v>1478.358752225864</v>
+        <v>1479.790923896579</v>
       </c>
     </row>
     <row r="940">
@@ -44422,7 +44422,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="8" t="n">
-        <v>1596.491615715621</v>
+        <v>1579.681187358953</v>
       </c>
     </row>
     <row r="941">
@@ -44430,7 +44430,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="8" t="n">
-        <v>1384.929106171542</v>
+        <v>1385.809310931385</v>
       </c>
     </row>
     <row r="942">
@@ -44438,7 +44438,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="8" t="n">
-        <v>1664.287607497119</v>
+        <v>1691.755344157357</v>
       </c>
     </row>
     <row r="943">
@@ -44446,7 +44446,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="8" t="n">
-        <v>1756.369264874397</v>
+        <v>1826.320733438381</v>
       </c>
     </row>
     <row r="944">
@@ -44454,7 +44454,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="8" t="n">
-        <v>1460.366281034938</v>
+        <v>1601.876676568545</v>
       </c>
     </row>
     <row r="945">
@@ -44462,7 +44462,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="8" t="n">
-        <v>1656.079068985804</v>
+        <v>1439.184190741121</v>
       </c>
     </row>
     <row r="946">
@@ -44470,7 +44470,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="8" t="n">
-        <v>1656.050996347905</v>
+        <v>1490.783244955627</v>
       </c>
     </row>
     <row r="947">
@@ -44478,7 +44478,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="8" t="n">
-        <v>1328.858860194004</v>
+        <v>1500.781289099347</v>
       </c>
     </row>
     <row r="948">
@@ -44486,7 +44486,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="8" t="n">
-        <v>1623.213524661398</v>
+        <v>1776.84806071794</v>
       </c>
     </row>
     <row r="949">
@@ -44494,7 +44494,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="8" t="n">
-        <v>1356.037061725135</v>
+        <v>1738.993046696427</v>
       </c>
     </row>
     <row r="950">
@@ -44502,7 +44502,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="8" t="n">
-        <v>1621.660886198497</v>
+        <v>1671.131467303976</v>
       </c>
     </row>
     <row r="951">
@@ -44510,7 +44510,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="8" t="n">
-        <v>1500.253582558878</v>
+        <v>1604.32868262754</v>
       </c>
     </row>
     <row r="952">
@@ -44518,7 +44518,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="8" t="n">
-        <v>1541.217503332444</v>
+        <v>1564.639421552143</v>
       </c>
     </row>
     <row r="953">
@@ -44526,7 +44526,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="8" t="n">
-        <v>1272.470854607294</v>
+        <v>1691.808335819387</v>
       </c>
     </row>
     <row r="954">
@@ -44534,7 +44534,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="8" t="n">
-        <v>1801.694513253053</v>
+        <v>1721.803194050972</v>
       </c>
     </row>
     <row r="955">
@@ -44542,7 +44542,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="8" t="n">
-        <v>1819.642395338205</v>
+        <v>1898.516454003952</v>
       </c>
     </row>
     <row r="956">
@@ -44550,7 +44550,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="8" t="n">
-        <v>1511.370756607112</v>
+        <v>1428.471314809854</v>
       </c>
     </row>
     <row r="957">
@@ -44558,7 +44558,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="8" t="n">
-        <v>1291.498362160293</v>
+        <v>1810.643990912338</v>
       </c>
     </row>
     <row r="958">
@@ -44566,7 +44566,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="8" t="n">
-        <v>1739.759943550736</v>
+        <v>1472.675916518674</v>
       </c>
     </row>
     <row r="959">
@@ -44574,7 +44574,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="8" t="n">
-        <v>1474.683923235819</v>
+        <v>1677.575663994951</v>
       </c>
     </row>
     <row r="960">
@@ -44582,7 +44582,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="8" t="n">
-        <v>1865.54219344391</v>
+        <v>1416.944289853418</v>
       </c>
     </row>
     <row r="961">
@@ -44590,7 +44590,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="8" t="n">
-        <v>1655.282887344582</v>
+        <v>1347.738028478238</v>
       </c>
     </row>
     <row r="962">
@@ -44598,7 +44598,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="8" t="n">
-        <v>1561.82522999662</v>
+        <v>1805.324869616879</v>
       </c>
     </row>
     <row r="963">
@@ -44606,7 +44606,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="8" t="n">
-        <v>1607.16232975546</v>
+        <v>1698.785523397386</v>
       </c>
     </row>
     <row r="964">
@@ -44614,7 +44614,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="8" t="n">
-        <v>1648.662773926293</v>
+        <v>1450.341468148706</v>
       </c>
     </row>
     <row r="965">
@@ -44622,7 +44622,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="8" t="n">
-        <v>1600.579582603282</v>
+        <v>1526.381053914001</v>
       </c>
     </row>
     <row r="966">
@@ -44630,7 +44630,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="8" t="n">
-        <v>1481.617678824415</v>
+        <v>1388.892800264445</v>
       </c>
     </row>
     <row r="967">
@@ -44638,7 +44638,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="8" t="n">
-        <v>1353.875000453316</v>
+        <v>1321.879073504263</v>
       </c>
     </row>
     <row r="968">
@@ -44646,7 +44646,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="8" t="n">
-        <v>1508.497147928869</v>
+        <v>1812.725731746053</v>
       </c>
     </row>
     <row r="969">
@@ -44654,7 +44654,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="8" t="n">
-        <v>1474.720688668012</v>
+        <v>1652.628167375575</v>
       </c>
     </row>
     <row r="970">
@@ -44662,7 +44662,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="8" t="n">
-        <v>1836.699086491447</v>
+        <v>1758.200955121975</v>
       </c>
     </row>
     <row r="971">
@@ -44670,7 +44670,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="8" t="n">
-        <v>1330.718030233868</v>
+        <v>1366.220385256758</v>
       </c>
     </row>
     <row r="972">
@@ -44678,7 +44678,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="8" t="n">
-        <v>1592.559701359235</v>
+        <v>1551.664740876962</v>
       </c>
     </row>
     <row r="973">
@@ -44686,7 +44686,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="8" t="n">
-        <v>1445.096261170496</v>
+        <v>1441.927861888827</v>
       </c>
     </row>
     <row r="974">
@@ -44694,7 +44694,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="8" t="n">
-        <v>1802.452269156136</v>
+        <v>1784.732949228682</v>
       </c>
     </row>
     <row r="975">
@@ -44702,7 +44702,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="8" t="n">
-        <v>1623.828865209745</v>
+        <v>1321.529378330521</v>
       </c>
     </row>
     <row r="976">
@@ -44710,7 +44710,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="8" t="n">
-        <v>1558.020462821435</v>
+        <v>1494.168517410516</v>
       </c>
     </row>
     <row r="977">
@@ -44718,7 +44718,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="8" t="n">
-        <v>1530.610608747682</v>
+        <v>1608.485969987646</v>
       </c>
     </row>
     <row r="978">
@@ -44726,7 +44726,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="8" t="n">
-        <v>1386.982429588644</v>
+        <v>1492.045625638726</v>
       </c>
     </row>
     <row r="979">
@@ -44734,7 +44734,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="8" t="n">
-        <v>1782.421965804129</v>
+        <v>1746.765981235613</v>
       </c>
     </row>
     <row r="980">
@@ -44742,7 +44742,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="8" t="n">
-        <v>1690.242368610375</v>
+        <v>1828.554224120887</v>
       </c>
     </row>
     <row r="981">
@@ -44750,7 +44750,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="8" t="n">
-        <v>1394.279137365111</v>
+        <v>1411.49172766502</v>
       </c>
     </row>
     <row r="982">
@@ -44758,7 +44758,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="8" t="n">
-        <v>1528.14915951049</v>
+        <v>1305.811302257938</v>
       </c>
     </row>
     <row r="983">
@@ -44766,7 +44766,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="8" t="n">
-        <v>1374.754619010942</v>
+        <v>1430.180441294438</v>
       </c>
     </row>
     <row r="984">
@@ -44774,7 +44774,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="8" t="n">
-        <v>1738.114160341227</v>
+        <v>1555.329015506027</v>
       </c>
     </row>
     <row r="985">
@@ -44782,7 +44782,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="8" t="n">
-        <v>1812.096087798534</v>
+        <v>1494.963046263551</v>
       </c>
     </row>
     <row r="986">
@@ -44790,7 +44790,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="8" t="n">
-        <v>1420.601428398535</v>
+        <v>1537.569750757173</v>
       </c>
     </row>
     <row r="987">
@@ -44798,7 +44798,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="8" t="n">
-        <v>1697.351613643296</v>
+        <v>1675.788811828237</v>
       </c>
     </row>
     <row r="988">
@@ -44806,7 +44806,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="8" t="n">
-        <v>1337.152554174474</v>
+        <v>1678.501642772183</v>
       </c>
     </row>
     <row r="989">
@@ -44814,7 +44814,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="8" t="n">
-        <v>1603.708032140355</v>
+        <v>1699.5196432326</v>
       </c>
     </row>
     <row r="990">
@@ -44822,7 +44822,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="8" t="n">
-        <v>1282.691845876602</v>
+        <v>1325.021331335526</v>
       </c>
     </row>
     <row r="991">
@@ -44830,7 +44830,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="8" t="n">
-        <v>1438.125463874339</v>
+        <v>1892.830689594408</v>
       </c>
     </row>
     <row r="992">
@@ -44838,7 +44838,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="8" t="n">
-        <v>1814.72091328663</v>
+        <v>1369.149832085753</v>
       </c>
     </row>
     <row r="993">
@@ -44846,7 +44846,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="8" t="n">
-        <v>1723.728570690292</v>
+        <v>1789.203048211572</v>
       </c>
     </row>
     <row r="994">
@@ -44854,7 +44854,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="8" t="n">
-        <v>1392.606615265146</v>
+        <v>1363.939460698177</v>
       </c>
     </row>
     <row r="995">
@@ -44862,7 +44862,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="8" t="n">
-        <v>1433.074676327244</v>
+        <v>1765.995598888503</v>
       </c>
     </row>
     <row r="996">
@@ -44870,7 +44870,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="8" t="n">
-        <v>1490.457754660736</v>
+        <v>1511.275033255945</v>
       </c>
     </row>
     <row r="997">
@@ -44878,7 +44878,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="8" t="n">
-        <v>1795.944444477594</v>
+        <v>1561.272132143263</v>
       </c>
     </row>
     <row r="998">
@@ -44886,7 +44886,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="8" t="n">
-        <v>1592.473387106847</v>
+        <v>1451.171272791105</v>
       </c>
     </row>
     <row r="999">
@@ -44894,7 +44894,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="8" t="n">
-        <v>1368.044780194704</v>
+        <v>1572.976948937996</v>
       </c>
     </row>
     <row r="1000">
@@ -44902,7 +44902,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="8" t="n">
-        <v>1517.554466511221</v>
+        <v>1462.171439143799</v>
       </c>
     </row>
     <row r="1001">
@@ -44910,7 +44910,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="8" t="n">
-        <v>1817.901325341147</v>
+        <v>1838.226851808201</v>
       </c>
     </row>
   </sheetData>
